--- a/static/Models/Classification/Equation/Pharmaceuticals.xlsx
+++ b/static/Models/Classification/Equation/Pharmaceuticals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-4.369966506958008</v>
+        <v>-4.710214614868164</v>
       </c>
       <c r="C2">
-        <v>2.095563411712646</v>
+        <v>2.916960477828979</v>
       </c>
       <c r="D2">
-        <v>-6.582042694091797</v>
+        <v>-6.776670932769775</v>
       </c>
       <c r="E2">
-        <v>2.567986726760864</v>
+        <v>1.808698892593384</v>
       </c>
       <c r="F2">
-        <v>0.8035123944282532</v>
+        <v>1.314046740531921</v>
       </c>
       <c r="G2">
-        <v>-2.98968768119812</v>
+        <v>-1.756666660308838</v>
       </c>
       <c r="H2">
-        <v>0.7631845474243164</v>
+        <v>-0.2549106776714325</v>
       </c>
       <c r="I2">
-        <v>3.018924713134766</v>
+        <v>2.646498680114746</v>
       </c>
       <c r="J2">
-        <v>-4.603461265563965</v>
+        <v>-5.29601001739502</v>
       </c>
       <c r="K2">
-        <v>0.199109211564064</v>
+        <v>-0.2557443976402283</v>
       </c>
       <c r="L2">
-        <v>-0.9751144051551819</v>
+        <v>-2.157855272293091</v>
       </c>
       <c r="M2">
-        <v>-0.7193212509155273</v>
+        <v>-0.09847626835107803</v>
       </c>
       <c r="N2">
-        <v>-0.5981009006500244</v>
+        <v>0.2931106686592102</v>
       </c>
       <c r="O2">
-        <v>-11.19015407562256</v>
+        <v>-11.74697113037109</v>
       </c>
       <c r="P2">
-        <v>-6.471206188201904</v>
+        <v>-6.043792247772217</v>
       </c>
       <c r="Q2">
-        <v>-7.763381481170654</v>
+        <v>-7.598986625671387</v>
       </c>
       <c r="R2">
-        <v>0.4424973130226135</v>
+        <v>-0.2613218426704407</v>
       </c>
       <c r="S2">
-        <v>3.432344675064087</v>
+        <v>3.141773223876953</v>
       </c>
       <c r="T2">
-        <v>4.871787071228027</v>
+        <v>5.03136682510376</v>
       </c>
       <c r="U2">
-        <v>-1.315729141235352</v>
+        <v>-0.5990206003189087</v>
       </c>
       <c r="V2">
-        <v>0.4905404150485992</v>
+        <v>1.66716194152832</v>
       </c>
       <c r="W2">
-        <v>1.957481622695923</v>
+        <v>1.14083206653595</v>
       </c>
       <c r="X2">
-        <v>-0.3067252635955811</v>
+        <v>-0.2397943139076233</v>
       </c>
       <c r="Y2">
-        <v>6.972335815429688</v>
+        <v>8.044869422912598</v>
       </c>
       <c r="Z2">
-        <v>-0.4303734600543976</v>
+        <v>-1.580311298370361</v>
       </c>
       <c r="AA2">
-        <v>3.934545516967773</v>
+        <v>2.811502695083618</v>
       </c>
       <c r="AB2">
-        <v>0.378069669008255</v>
+        <v>-0.1759061515331268</v>
       </c>
       <c r="AC2">
-        <v>-10.07001495361328</v>
+        <v>-11.02792358398438</v>
       </c>
       <c r="AD2">
-        <v>-0.01021704077720642</v>
+        <v>-0.3504267036914825</v>
       </c>
       <c r="AE2">
-        <v>3.067970991134644</v>
+        <v>2.286987066268921</v>
       </c>
       <c r="AF2">
-        <v>0.865508496761322</v>
+        <v>0.1523769795894623</v>
       </c>
       <c r="AG2">
-        <v>-5.335211277008057</v>
+        <v>-5.966738700866699</v>
       </c>
       <c r="AH2">
-        <v>-6.990216732025146</v>
+        <v>-6.307137489318848</v>
       </c>
       <c r="AI2">
-        <v>-3.187530994415283</v>
+        <v>-2.542841196060181</v>
       </c>
       <c r="AJ2">
-        <v>1.369864106178284</v>
+        <v>1.627510786056519</v>
       </c>
       <c r="AK2">
-        <v>1.771734595298767</v>
+        <v>0.8112579584121704</v>
       </c>
       <c r="AL2">
-        <v>-1.221797585487366</v>
+        <v>-0.141195684671402</v>
       </c>
       <c r="AM2">
-        <v>3.967621326446533</v>
+        <v>4.788818836212158</v>
       </c>
       <c r="AN2">
-        <v>-10.40034103393555</v>
+        <v>-11.39108562469482</v>
       </c>
       <c r="AO2">
-        <v>1.313900709152222</v>
+        <v>0.5456637740135193</v>
       </c>
       <c r="AP2">
-        <v>4.999401092529297</v>
+        <v>5.449857234954834</v>
       </c>
       <c r="AQ2">
-        <v>1.531346082687378</v>
+        <v>2.502079725265503</v>
       </c>
       <c r="AR2">
-        <v>12.21340942382812</v>
+        <v>12.77196407318115</v>
       </c>
       <c r="AS2">
-        <v>-5.40867805480957</v>
+        <v>-6.57620096206665</v>
       </c>
       <c r="AT2">
-        <v>-0.8562073111534119</v>
+        <v>-0.1452638357877731</v>
       </c>
       <c r="AU2">
-        <v>-1.304785966873169</v>
+        <v>-0.4812432825565338</v>
       </c>
       <c r="AV2">
-        <v>1.82489025592804</v>
+        <v>2.568695545196533</v>
       </c>
       <c r="AW2">
-        <v>0.162208616733551</v>
+        <v>0.6683951616287231</v>
       </c>
       <c r="AX2">
-        <v>-0.2142167389392853</v>
+        <v>-0.1074655428528786</v>
       </c>
       <c r="AY2">
-        <v>-5.551043033599854</v>
+        <v>-6.428787231445312</v>
       </c>
       <c r="AZ2">
-        <v>-8.456287384033203</v>
+        <v>-8.761723518371582</v>
       </c>
       <c r="BA2">
-        <v>-2.976201295852661</v>
+        <v>-2.056301355361938</v>
       </c>
       <c r="BB2">
-        <v>-4.866743087768555</v>
+        <v>-4.038187503814697</v>
       </c>
       <c r="BC2">
-        <v>-1.67410135269165</v>
+        <v>-1.790354251861572</v>
       </c>
       <c r="BD2">
-        <v>0.3448267877101898</v>
+        <v>-0.1321282535791397</v>
       </c>
       <c r="BE2">
-        <v>-0.3162067234516144</v>
+        <v>-0.8031513690948486</v>
       </c>
       <c r="BF2">
-        <v>-3.974536418914795</v>
+        <v>-2.925372123718262</v>
       </c>
       <c r="BG2">
-        <v>-0.09000082314014435</v>
+        <v>-0.378360390663147</v>
       </c>
       <c r="BH2">
-        <v>-0.1860087066888809</v>
+        <v>0.5434694886207581</v>
       </c>
       <c r="BI2">
-        <v>-2.709209203720093</v>
+        <v>-3.354162693023682</v>
       </c>
       <c r="BJ2">
-        <v>-4.7964768409729</v>
+        <v>-5.324792385101318</v>
       </c>
       <c r="BK2">
-        <v>-0.7465291023254395</v>
+        <v>-0.8328080177307129</v>
       </c>
       <c r="BL2">
-        <v>7.557643413543701</v>
+        <v>7.525938510894775</v>
       </c>
       <c r="BM2">
-        <v>-6.212234497070312</v>
+        <v>-6.410436153411865</v>
       </c>
       <c r="BN2">
-        <v>1.054555416107178</v>
+        <v>0.6472228169441223</v>
       </c>
       <c r="BO2">
-        <v>-10.13632392883301</v>
+        <v>-11.01155948638916</v>
       </c>
       <c r="BP2">
-        <v>-4.211402893066406</v>
+        <v>-3.646681547164917</v>
       </c>
       <c r="BQ2">
-        <v>5.516198635101318</v>
+        <v>4.928163051605225</v>
       </c>
       <c r="BR2">
-        <v>-1.456324934959412</v>
+        <v>-2.093766450881958</v>
       </c>
       <c r="BS2">
-        <v>2.437327861785889</v>
+        <v>1.976003170013428</v>
       </c>
       <c r="BT2">
-        <v>-1.32568097114563</v>
+        <v>-2.378552913665771</v>
       </c>
       <c r="BU2">
-        <v>2.345070838928223</v>
+        <v>3.242574453353882</v>
       </c>
       <c r="BV2">
-        <v>4.640433788299561</v>
+        <v>4.83469295501709</v>
       </c>
       <c r="BW2">
-        <v>0.2128344625234604</v>
+        <v>0.6037352681159973</v>
       </c>
       <c r="BX2">
-        <v>-0.7780133485794067</v>
+        <v>-1.431613922119141</v>
       </c>
       <c r="BY2">
-        <v>-1.43544614315033</v>
+        <v>-0.6102291941642761</v>
       </c>
       <c r="BZ2">
-        <v>-6.269306182861328</v>
+        <v>-7.01395845413208</v>
       </c>
       <c r="CA2">
-        <v>3.151870965957642</v>
+        <v>4.259116172790527</v>
       </c>
       <c r="CB2">
-        <v>2.00600266456604</v>
+        <v>1.017815113067627</v>
       </c>
       <c r="CC2">
-        <v>3.544576406478882</v>
+        <v>3.082548141479492</v>
       </c>
       <c r="CD2">
-        <v>0.3714143037796021</v>
+        <v>-0.4075681269168854</v>
       </c>
       <c r="CE2">
-        <v>5.79794454574585</v>
+        <v>5.356777667999268</v>
       </c>
       <c r="CF2">
-        <v>0.9530798196792603</v>
+        <v>0.16596320271492</v>
       </c>
       <c r="CG2">
-        <v>-6.380157470703125</v>
+        <v>-6.746044158935547</v>
       </c>
       <c r="CH2">
-        <v>-13.13721179962158</v>
+        <v>-12.4683666229248</v>
       </c>
       <c r="CI2">
-        <v>1.823842287063599</v>
+        <v>1.199230790138245</v>
       </c>
       <c r="CJ2">
-        <v>-3.80207371711731</v>
+        <v>-3.711485862731934</v>
       </c>
       <c r="CK2">
-        <v>-0.4550445079803467</v>
+        <v>0.5554895401000977</v>
       </c>
       <c r="CL2">
-        <v>-0.6869968175888062</v>
+        <v>-0.6090980768203735</v>
       </c>
       <c r="CM2">
-        <v>4.609939575195312</v>
+        <v>3.841405391693115</v>
       </c>
       <c r="CN2">
-        <v>-0.266018271446228</v>
+        <v>0.5112823247909546</v>
       </c>
       <c r="CO2">
-        <v>0.2380342483520508</v>
+        <v>-0.4230787754058838</v>
       </c>
       <c r="CP2">
-        <v>9.066113471984863</v>
+        <v>8.020617485046387</v>
       </c>
       <c r="CQ2">
-        <v>9.45229434967041</v>
+        <v>9.773006439208984</v>
       </c>
       <c r="CR2">
-        <v>0.6812351942062378</v>
+        <v>-0.4247777163982391</v>
       </c>
       <c r="CS2">
-        <v>0.6833011507987976</v>
+        <v>-0.06381954997777939</v>
       </c>
       <c r="CT2">
-        <v>-0.1728092283010483</v>
+        <v>-0.5162115097045898</v>
       </c>
       <c r="CU2">
-        <v>1.444103121757507</v>
+        <v>0.5031912326812744</v>
       </c>
       <c r="CV2">
-        <v>0.5682821869850159</v>
+        <v>1.260445237159729</v>
       </c>
       <c r="CW2">
-        <v>-3.853480577468872</v>
+        <v>-3.873636484146118</v>
       </c>
       <c r="CX2">
-        <v>1.870848059654236</v>
+        <v>2.420188665390015</v>
       </c>
       <c r="CY2">
-        <v>5.47267484664917</v>
+        <v>6.530736446380615</v>
       </c>
       <c r="CZ2">
-        <v>0.572782576084137</v>
+        <v>-0.5667661428451538</v>
       </c>
       <c r="DA2">
-        <v>-2.47041130065918</v>
+        <v>-3.620108127593994</v>
       </c>
       <c r="DB2">
-        <v>-0.1184036508202553</v>
+        <v>0.2744332551956177</v>
       </c>
       <c r="DC2">
-        <v>-0.3207712173461914</v>
+        <v>0.186855137348175</v>
       </c>
       <c r="DD2">
-        <v>-6.549326419830322</v>
+        <v>-6.126883506774902</v>
       </c>
       <c r="DE2">
-        <v>-1.15722668170929</v>
+        <v>-1.924945592880249</v>
       </c>
       <c r="DF2">
-        <v>6.049598693847656</v>
+        <v>6.455257892608643</v>
       </c>
       <c r="DG2">
-        <v>2.338311433792114</v>
+        <v>1.376484274864197</v>
       </c>
       <c r="DH2">
-        <v>9.547163963317871</v>
+        <v>8.162764549255371</v>
       </c>
       <c r="DI2">
-        <v>-0.0173972025513649</v>
+        <v>-0.7476233839988708</v>
       </c>
       <c r="DJ2">
-        <v>2.207278490066528</v>
+        <v>1.493131160736084</v>
       </c>
       <c r="DK2">
-        <v>-12.513108253479</v>
+        <v>-12.28677749633789</v>
       </c>
       <c r="DL2">
-        <v>-0.5160174965858459</v>
+        <v>0.1621654778718948</v>
       </c>
       <c r="DM2">
-        <v>-5.039581775665283</v>
+        <v>-4.198234081268311</v>
       </c>
       <c r="DN2">
-        <v>-0.6742696762084961</v>
+        <v>-0.8312279582023621</v>
       </c>
       <c r="DO2">
-        <v>-25.98771858215332</v>
+        <v>-25.22257423400879</v>
       </c>
       <c r="DP2">
-        <v>2.209747791290283</v>
+        <v>1.755521416664124</v>
       </c>
       <c r="DQ2">
-        <v>0.03700938820838928</v>
+        <v>-0.8188740611076355</v>
       </c>
       <c r="DR2">
-        <v>-0.5116425156593323</v>
+        <v>-0.2315926253795624</v>
       </c>
       <c r="DS2">
-        <v>0.07693219184875488</v>
+        <v>0.6077449917793274</v>
       </c>
       <c r="DT2">
-        <v>-6.980441093444824</v>
+        <v>-7.361716270446777</v>
       </c>
       <c r="DU2">
-        <v>-3.113239765167236</v>
+        <v>-4.232831001281738</v>
       </c>
       <c r="DV2">
-        <v>-0.7656101584434509</v>
+        <v>-0.4832667708396912</v>
       </c>
       <c r="DW2">
-        <v>-0.3375007510185242</v>
+        <v>-0.2925949394702911</v>
       </c>
       <c r="DX2">
-        <v>-1.918552279472351</v>
+        <v>-2.164751052856445</v>
       </c>
       <c r="DY2">
-        <v>6.193443775177002</v>
+        <v>6.559457302093506</v>
       </c>
       <c r="DZ2">
-        <v>0.6736764907836914</v>
+        <v>1.539544582366943</v>
       </c>
       <c r="EA2">
-        <v>1.570914387702942</v>
+        <v>1.791836142539978</v>
       </c>
       <c r="EB2">
-        <v>0.3638602793216705</v>
+        <v>-0.1777787655591965</v>
       </c>
       <c r="EC2">
-        <v>0.508685827255249</v>
+        <v>-0.2808043658733368</v>
       </c>
       <c r="ED2">
-        <v>7.704728603363037</v>
+        <v>7.630791664123535</v>
       </c>
       <c r="EE2">
-        <v>0.9911767244338989</v>
+        <v>0.2531172931194305</v>
       </c>
       <c r="EF2">
-        <v>15.94857788085938</v>
+        <v>15.84647083282471</v>
       </c>
       <c r="EG2">
-        <v>3.36163067817688</v>
+        <v>4.353218078613281</v>
       </c>
       <c r="EH2">
-        <v>-5.987157344818115</v>
+        <v>-5.756772041320801</v>
       </c>
       <c r="EI2">
-        <v>-1.21043336391449</v>
+        <v>-2.04839563369751</v>
       </c>
       <c r="EJ2">
-        <v>-10.90709018707275</v>
+        <v>-11.08876800537109</v>
       </c>
       <c r="EK2">
-        <v>2.246868133544922</v>
+        <v>1.880509972572327</v>
       </c>
       <c r="EL2">
-        <v>-0.4791913330554962</v>
+        <v>-0.9261975288391113</v>
       </c>
       <c r="EM2">
-        <v>-3.316301345825195</v>
+        <v>-3.271155595779419</v>
       </c>
       <c r="EN2">
-        <v>2.802280187606812</v>
+        <v>2.179134607315063</v>
       </c>
       <c r="EO2">
-        <v>4.870813369750977</v>
+        <v>4.691320419311523</v>
       </c>
       <c r="EP2">
-        <v>-5.208245277404785</v>
+        <v>-5.351001262664795</v>
       </c>
       <c r="EQ2">
-        <v>2.116341829299927</v>
+        <v>0.9269561767578125</v>
       </c>
       <c r="ER2">
-        <v>-0.2428985834121704</v>
+        <v>-1.238903284072876</v>
       </c>
       <c r="ES2">
-        <v>5.035264492034912</v>
+        <v>5.757479667663574</v>
       </c>
       <c r="ET2">
-        <v>-0.6250750422477722</v>
+        <v>-0.306109219789505</v>
       </c>
       <c r="EU2">
-        <v>-6.297066688537598</v>
+        <v>-6.114456653594971</v>
       </c>
       <c r="EV2">
-        <v>-9.001070022583008</v>
+        <v>-9.013193130493164</v>
       </c>
       <c r="EW2">
-        <v>-5.559435367584229</v>
+        <v>-5.563774585723877</v>
       </c>
       <c r="EX2">
-        <v>4.869571208953857</v>
+        <v>3.660687685012817</v>
       </c>
       <c r="EY2">
-        <v>2.261174440383911</v>
+        <v>2.145982503890991</v>
       </c>
       <c r="EZ2">
-        <v>-3.192085027694702</v>
+        <v>-3.579165458679199</v>
       </c>
       <c r="FA2">
-        <v>0.8726128935813904</v>
+        <v>1.100751876831055</v>
       </c>
       <c r="FB2">
-        <v>1.503114461898804</v>
+        <v>0.6558693647384644</v>
       </c>
       <c r="FC2">
-        <v>0.137639656662941</v>
+        <v>-0.01118008513003588</v>
       </c>
       <c r="FD2">
-        <v>3.075483322143555</v>
+        <v>1.930096030235291</v>
       </c>
       <c r="FE2">
-        <v>-11.66440200805664</v>
+        <v>-11.17142105102539</v>
       </c>
       <c r="FF2">
-        <v>-5.002548217773438</v>
+        <v>-4.75542163848877</v>
       </c>
       <c r="FG2">
-        <v>-18.72143745422363</v>
+        <v>-18.72174072265625</v>
       </c>
       <c r="FH2">
-        <v>-0.9376040697097778</v>
+        <v>-0.01235321350395679</v>
       </c>
       <c r="FI2">
-        <v>1.119509100914001</v>
+        <v>1.103539705276489</v>
       </c>
       <c r="FJ2">
-        <v>9.392248153686523</v>
+        <v>10.642258644104</v>
       </c>
       <c r="FK2">
-        <v>8.66901683807373</v>
+        <v>9.111634254455566</v>
       </c>
       <c r="FL2">
-        <v>0.839489221572876</v>
+        <v>0.4674629867076874</v>
       </c>
       <c r="FM2">
-        <v>-7.834277153015137</v>
+        <v>-7.911816120147705</v>
       </c>
       <c r="FN2">
-        <v>5.810617446899414</v>
+        <v>5.664163112640381</v>
       </c>
       <c r="FO2">
-        <v>0.1059010848402977</v>
+        <v>-0.7070196270942688</v>
       </c>
       <c r="FP2">
-        <v>-0.3807621896266937</v>
+        <v>0.439787358045578</v>
       </c>
       <c r="FQ2">
-        <v>1.615856647491455</v>
+        <v>1.024032473564148</v>
       </c>
       <c r="FR2">
-        <v>-1.392907977104187</v>
+        <v>-2.284148454666138</v>
       </c>
       <c r="FS2">
-        <v>-0.5199980139732361</v>
+        <v>-0.6780068874359131</v>
       </c>
       <c r="FT2">
-        <v>2.136462211608887</v>
+        <v>1.475476264953613</v>
       </c>
       <c r="FU2">
-        <v>1.491154432296753</v>
+        <v>1.034580588340759</v>
       </c>
       <c r="FV2">
-        <v>0.7216872572898865</v>
+        <v>1.710493922233582</v>
       </c>
       <c r="FW2">
-        <v>-1.119279861450195</v>
+        <v>-1.617823958396912</v>
       </c>
       <c r="FX2">
-        <v>0.2594380974769592</v>
+        <v>-0.3470183610916138</v>
       </c>
       <c r="FY2">
-        <v>-1.859331965446472</v>
+        <v>-2.321121454238892</v>
       </c>
       <c r="FZ2">
-        <v>0.1087373420596123</v>
+        <v>0.3033900558948517</v>
       </c>
       <c r="GA2">
-        <v>-1.319937109947205</v>
+        <v>-2.180038213729858</v>
       </c>
       <c r="GB2">
-        <v>-1.773689866065979</v>
+        <v>-1.24346923828125</v>
       </c>
       <c r="GC2">
-        <v>-2.836106538772583</v>
+        <v>-3.876238107681274</v>
       </c>
       <c r="GD2">
-        <v>-7.086477756500244</v>
+        <v>-6.858327388763428</v>
       </c>
       <c r="GE2">
-        <v>0.4361401498317719</v>
+        <v>0.08180859684944153</v>
       </c>
       <c r="GF2">
-        <v>-2.22020411491394</v>
+        <v>-2.382981538772583</v>
       </c>
       <c r="GG2">
-        <v>9.775544166564941</v>
+        <v>9.76203441619873</v>
       </c>
       <c r="GH2">
-        <v>-1.163795590400696</v>
+        <v>-1.691698551177979</v>
       </c>
       <c r="GI2">
-        <v>3.155935525894165</v>
+        <v>2.342387676239014</v>
       </c>
       <c r="GJ2">
-        <v>0.823125422000885</v>
+        <v>0.06014107540249825</v>
       </c>
       <c r="GK2">
-        <v>7.647696018218994</v>
+        <v>7.328131675720215</v>
       </c>
       <c r="GL2">
-        <v>-10.14560699462891</v>
+        <v>-9.901751518249512</v>
       </c>
       <c r="GM2">
-        <v>1.645233869552612</v>
+        <v>0.9188029170036316</v>
       </c>
       <c r="GN2">
-        <v>-1.239293932914734</v>
+        <v>-0.6749833226203918</v>
       </c>
       <c r="GO2">
-        <v>9.891270637512207</v>
+        <v>9.530095100402832</v>
       </c>
       <c r="GP2">
-        <v>-1.128168702125549</v>
+        <v>-1.559851408004761</v>
       </c>
       <c r="GQ2">
-        <v>1.09745180606842</v>
+        <v>1.452324151992798</v>
       </c>
       <c r="GR2">
-        <v>2.200906991958618</v>
+        <v>1.293792605400085</v>
       </c>
       <c r="GS2">
-        <v>-3.720097064971924</v>
+        <v>-3.329791307449341</v>
       </c>
       <c r="GT2">
-        <v>0.3854168355464935</v>
+        <v>-0.1782955229282379</v>
       </c>
       <c r="GU2">
-        <v>-2.361062288284302</v>
+        <v>-1.957877278327942</v>
       </c>
       <c r="GV2">
-        <v>0.211727574467659</v>
+        <v>-0.7273128032684326</v>
       </c>
       <c r="GW2">
-        <v>5.735274791717529</v>
+        <v>5.145510196685791</v>
       </c>
       <c r="GX2">
-        <v>2.239718675613403</v>
+        <v>1.564017057418823</v>
       </c>
       <c r="GY2">
-        <v>-1.75342071056366</v>
+        <v>-1.769885063171387</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Pharmaceuticals.xlsx
+++ b/static/Models/Classification/Equation/Pharmaceuticals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-4.710214614868164</v>
+        <v>-4.145527839660645</v>
       </c>
       <c r="C2">
-        <v>2.916960477828979</v>
+        <v>3.534721612930298</v>
       </c>
       <c r="D2">
-        <v>-6.776670932769775</v>
+        <v>-5.953060626983643</v>
       </c>
       <c r="E2">
-        <v>1.808698892593384</v>
+        <v>1.43483293056488</v>
       </c>
       <c r="F2">
-        <v>1.314046740531921</v>
+        <v>0.9125462174415588</v>
       </c>
       <c r="G2">
-        <v>-1.756666660308838</v>
+        <v>-0.8930469155311584</v>
       </c>
       <c r="H2">
-        <v>-0.2549106776714325</v>
+        <v>-0.2872592508792877</v>
       </c>
       <c r="I2">
-        <v>2.646498680114746</v>
+        <v>2.364761352539062</v>
       </c>
       <c r="J2">
-        <v>-5.29601001739502</v>
+        <v>-5.284080982208252</v>
       </c>
       <c r="K2">
-        <v>-0.2557443976402283</v>
+        <v>-0.8101958632469177</v>
       </c>
       <c r="L2">
-        <v>-2.157855272293091</v>
+        <v>-2.240127325057983</v>
       </c>
       <c r="M2">
-        <v>-0.09847626835107803</v>
+        <v>0.7491951584815979</v>
       </c>
       <c r="N2">
-        <v>0.2931106686592102</v>
+        <v>1.020843744277954</v>
       </c>
       <c r="O2">
-        <v>-11.74697113037109</v>
+        <v>-12.62445259094238</v>
       </c>
       <c r="P2">
-        <v>-6.043792247772217</v>
+        <v>-5.696100234985352</v>
       </c>
       <c r="Q2">
-        <v>-7.598986625671387</v>
+        <v>-6.553540229797363</v>
       </c>
       <c r="R2">
-        <v>-0.2613218426704407</v>
+        <v>-0.6682217121124268</v>
       </c>
       <c r="S2">
-        <v>3.141773223876953</v>
+        <v>3.526121616363525</v>
       </c>
       <c r="T2">
-        <v>5.03136682510376</v>
+        <v>4.635120391845703</v>
       </c>
       <c r="U2">
-        <v>-0.5990206003189087</v>
+        <v>-0.1896155029535294</v>
       </c>
       <c r="V2">
-        <v>1.66716194152832</v>
+        <v>1.185926795005798</v>
       </c>
       <c r="W2">
-        <v>1.14083206653595</v>
+        <v>0.4869701266288757</v>
       </c>
       <c r="X2">
-        <v>-0.2397943139076233</v>
+        <v>-0.8971108794212341</v>
       </c>
       <c r="Y2">
-        <v>8.044869422912598</v>
+        <v>8.454085350036621</v>
       </c>
       <c r="Z2">
-        <v>-1.580311298370361</v>
+        <v>-1.184513211250305</v>
       </c>
       <c r="AA2">
-        <v>2.811502695083618</v>
+        <v>3.040774345397949</v>
       </c>
       <c r="AB2">
-        <v>-0.1759061515331268</v>
+        <v>-0.9222433567047119</v>
       </c>
       <c r="AC2">
-        <v>-11.02792358398438</v>
+        <v>-10.82491588592529</v>
       </c>
       <c r="AD2">
-        <v>-0.3504267036914825</v>
+        <v>-0.5651729106903076</v>
       </c>
       <c r="AE2">
-        <v>2.286987066268921</v>
+        <v>1.866875171661377</v>
       </c>
       <c r="AF2">
-        <v>0.1523769795894623</v>
+        <v>0.3552195429801941</v>
       </c>
       <c r="AG2">
-        <v>-5.966738700866699</v>
+        <v>-5.478743553161621</v>
       </c>
       <c r="AH2">
-        <v>-6.307137489318848</v>
+        <v>-6.16033411026001</v>
       </c>
       <c r="AI2">
-        <v>-2.542841196060181</v>
+        <v>-3.21377420425415</v>
       </c>
       <c r="AJ2">
-        <v>1.627510786056519</v>
+        <v>0.9420844316482544</v>
       </c>
       <c r="AK2">
-        <v>0.8112579584121704</v>
+        <v>1.098887324333191</v>
       </c>
       <c r="AL2">
-        <v>-0.141195684671402</v>
+        <v>-0.1565904319286346</v>
       </c>
       <c r="AM2">
-        <v>4.788818836212158</v>
+        <v>4.63779878616333</v>
       </c>
       <c r="AN2">
-        <v>-11.39108562469482</v>
+        <v>-11.19676876068115</v>
       </c>
       <c r="AO2">
-        <v>0.5456637740135193</v>
+        <v>0.05829382315278053</v>
       </c>
       <c r="AP2">
-        <v>5.449857234954834</v>
+        <v>4.854406833648682</v>
       </c>
       <c r="AQ2">
-        <v>2.502079725265503</v>
+        <v>2.530264854431152</v>
       </c>
       <c r="AR2">
-        <v>12.77196407318115</v>
+        <v>12.58461093902588</v>
       </c>
       <c r="AS2">
-        <v>-6.57620096206665</v>
+        <v>-6.010230541229248</v>
       </c>
       <c r="AT2">
-        <v>-0.1452638357877731</v>
+        <v>0.3537819087505341</v>
       </c>
       <c r="AU2">
-        <v>-0.4812432825565338</v>
+        <v>-0.3220874965190887</v>
       </c>
       <c r="AV2">
-        <v>2.568695545196533</v>
+        <v>1.79307234287262</v>
       </c>
       <c r="AW2">
-        <v>0.6683951616287231</v>
+        <v>1.006105899810791</v>
       </c>
       <c r="AX2">
-        <v>-0.1074655428528786</v>
+        <v>-0.4265550673007965</v>
       </c>
       <c r="AY2">
-        <v>-6.428787231445312</v>
+        <v>-6.58500337600708</v>
       </c>
       <c r="AZ2">
-        <v>-8.761723518371582</v>
+        <v>-9.618212699890137</v>
       </c>
       <c r="BA2">
-        <v>-2.056301355361938</v>
+        <v>-2.374891519546509</v>
       </c>
       <c r="BB2">
-        <v>-4.038187503814697</v>
+        <v>-3.051756381988525</v>
       </c>
       <c r="BC2">
-        <v>-1.790354251861572</v>
+        <v>-1.292131185531616</v>
       </c>
       <c r="BD2">
-        <v>-0.1321282535791397</v>
+        <v>-0.3245100975036621</v>
       </c>
       <c r="BE2">
-        <v>-0.8031513690948486</v>
+        <v>-1.848332762718201</v>
       </c>
       <c r="BF2">
-        <v>-2.925372123718262</v>
+        <v>-1.968908190727234</v>
       </c>
       <c r="BG2">
-        <v>-0.378360390663147</v>
+        <v>-0.5372629165649414</v>
       </c>
       <c r="BH2">
-        <v>0.5434694886207581</v>
+        <v>1.187020778656006</v>
       </c>
       <c r="BI2">
-        <v>-3.354162693023682</v>
+        <v>-3.709658145904541</v>
       </c>
       <c r="BJ2">
-        <v>-5.324792385101318</v>
+        <v>-5.443923950195312</v>
       </c>
       <c r="BK2">
-        <v>-0.8328080177307129</v>
+        <v>-1.567731261253357</v>
       </c>
       <c r="BL2">
-        <v>7.525938510894775</v>
+        <v>7.883350849151611</v>
       </c>
       <c r="BM2">
-        <v>-6.410436153411865</v>
+        <v>-6.01943302154541</v>
       </c>
       <c r="BN2">
-        <v>0.6472228169441223</v>
+        <v>0.3387698233127594</v>
       </c>
       <c r="BO2">
-        <v>-11.01155948638916</v>
+        <v>-11.67943286895752</v>
       </c>
       <c r="BP2">
-        <v>-3.646681547164917</v>
+        <v>-3.928435564041138</v>
       </c>
       <c r="BQ2">
-        <v>4.928163051605225</v>
+        <v>4.57726001739502</v>
       </c>
       <c r="BR2">
-        <v>-2.093766450881958</v>
+        <v>-2.795302867889404</v>
       </c>
       <c r="BS2">
-        <v>1.976003170013428</v>
+        <v>1.286548376083374</v>
       </c>
       <c r="BT2">
-        <v>-2.378552913665771</v>
+        <v>-2.077448606491089</v>
       </c>
       <c r="BU2">
-        <v>3.242574453353882</v>
+        <v>2.887909173965454</v>
       </c>
       <c r="BV2">
-        <v>4.83469295501709</v>
+        <v>5.033551216125488</v>
       </c>
       <c r="BW2">
-        <v>0.6037352681159973</v>
+        <v>0.343795508146286</v>
       </c>
       <c r="BX2">
-        <v>-1.431613922119141</v>
+        <v>-1.613304257392883</v>
       </c>
       <c r="BY2">
-        <v>-0.6102291941642761</v>
+        <v>-0.6085361242294312</v>
       </c>
       <c r="BZ2">
-        <v>-7.01395845413208</v>
+        <v>-6.953756809234619</v>
       </c>
       <c r="CA2">
-        <v>4.259116172790527</v>
+        <v>4.613831996917725</v>
       </c>
       <c r="CB2">
-        <v>1.017815113067627</v>
+        <v>1.438737034797668</v>
       </c>
       <c r="CC2">
-        <v>3.082548141479492</v>
+        <v>3.057589769363403</v>
       </c>
       <c r="CD2">
-        <v>-0.4075681269168854</v>
+        <v>-0.6012694239616394</v>
       </c>
       <c r="CE2">
-        <v>5.356777667999268</v>
+        <v>4.76884126663208</v>
       </c>
       <c r="CF2">
-        <v>0.16596320271492</v>
+        <v>0.4009379148483276</v>
       </c>
       <c r="CG2">
-        <v>-6.746044158935547</v>
+        <v>-7.403282165527344</v>
       </c>
       <c r="CH2">
-        <v>-12.4683666229248</v>
+        <v>-12.7106409072876</v>
       </c>
       <c r="CI2">
-        <v>1.199230790138245</v>
+        <v>1.317221283912659</v>
       </c>
       <c r="CJ2">
-        <v>-3.711485862731934</v>
+        <v>-3.12092399597168</v>
       </c>
       <c r="CK2">
-        <v>0.5554895401000977</v>
+        <v>0.2388280034065247</v>
       </c>
       <c r="CL2">
-        <v>-0.6090980768203735</v>
+        <v>-0.9832223653793335</v>
       </c>
       <c r="CM2">
-        <v>3.841405391693115</v>
+        <v>3.691372394561768</v>
       </c>
       <c r="CN2">
-        <v>0.5112823247909546</v>
+        <v>-0.1707687675952911</v>
       </c>
       <c r="CO2">
-        <v>-0.4230787754058838</v>
+        <v>-0.7215737104415894</v>
       </c>
       <c r="CP2">
-        <v>8.020617485046387</v>
+        <v>8.958539009094238</v>
       </c>
       <c r="CQ2">
-        <v>9.773006439208984</v>
+        <v>8.784982681274414</v>
       </c>
       <c r="CR2">
-        <v>-0.4247777163982391</v>
+        <v>-0.3676140606403351</v>
       </c>
       <c r="CS2">
-        <v>-0.06381954997777939</v>
+        <v>0.05139794200658798</v>
       </c>
       <c r="CT2">
-        <v>-0.5162115097045898</v>
+        <v>-0.6659488677978516</v>
       </c>
       <c r="CU2">
-        <v>0.5031912326812744</v>
+        <v>0.0804269015789032</v>
       </c>
       <c r="CV2">
-        <v>1.260445237159729</v>
+        <v>0.9659758806228638</v>
       </c>
       <c r="CW2">
-        <v>-3.873636484146118</v>
+        <v>-3.675068378448486</v>
       </c>
       <c r="CX2">
-        <v>2.420188665390015</v>
+        <v>2.110095739364624</v>
       </c>
       <c r="CY2">
-        <v>6.530736446380615</v>
+        <v>6.800381183624268</v>
       </c>
       <c r="CZ2">
-        <v>-0.5667661428451538</v>
+        <v>-0.5457264184951782</v>
       </c>
       <c r="DA2">
-        <v>-3.620108127593994</v>
+        <v>-3.869797468185425</v>
       </c>
       <c r="DB2">
-        <v>0.2744332551956177</v>
+        <v>0.8643280267715454</v>
       </c>
       <c r="DC2">
-        <v>0.186855137348175</v>
+        <v>0.5824236869812012</v>
       </c>
       <c r="DD2">
-        <v>-6.126883506774902</v>
+        <v>-6.013527393341064</v>
       </c>
       <c r="DE2">
-        <v>-1.924945592880249</v>
+        <v>-1.8729168176651</v>
       </c>
       <c r="DF2">
-        <v>6.455257892608643</v>
+        <v>6.745519638061523</v>
       </c>
       <c r="DG2">
-        <v>1.376484274864197</v>
+        <v>2.030459880828857</v>
       </c>
       <c r="DH2">
-        <v>8.162764549255371</v>
+        <v>8.094363212585449</v>
       </c>
       <c r="DI2">
-        <v>-0.7476233839988708</v>
+        <v>-0.2606256604194641</v>
       </c>
       <c r="DJ2">
-        <v>1.493131160736084</v>
+        <v>2.330055952072144</v>
       </c>
       <c r="DK2">
-        <v>-12.28677749633789</v>
+        <v>-12.47513484954834</v>
       </c>
       <c r="DL2">
-        <v>0.1621654778718948</v>
+        <v>-0.1261597275733948</v>
       </c>
       <c r="DM2">
-        <v>-4.198234081268311</v>
+        <v>-3.746417999267578</v>
       </c>
       <c r="DN2">
-        <v>-0.8312279582023621</v>
+        <v>-0.8133592009544373</v>
       </c>
       <c r="DO2">
-        <v>-25.22257423400879</v>
+        <v>-24.88302421569824</v>
       </c>
       <c r="DP2">
-        <v>1.755521416664124</v>
+        <v>2.349420070648193</v>
       </c>
       <c r="DQ2">
-        <v>-0.8188740611076355</v>
+        <v>-0.8241328001022339</v>
       </c>
       <c r="DR2">
-        <v>-0.2315926253795624</v>
+        <v>-0.7734073996543884</v>
       </c>
       <c r="DS2">
-        <v>0.6077449917793274</v>
+        <v>0.4600237309932709</v>
       </c>
       <c r="DT2">
-        <v>-7.361716270446777</v>
+        <v>-7.993415355682373</v>
       </c>
       <c r="DU2">
-        <v>-4.232831001281738</v>
+        <v>-4.032923221588135</v>
       </c>
       <c r="DV2">
-        <v>-0.4832667708396912</v>
+        <v>0.1264882385730743</v>
       </c>
       <c r="DW2">
-        <v>-0.2925949394702911</v>
+        <v>-0.5223878026008606</v>
       </c>
       <c r="DX2">
-        <v>-2.164751052856445</v>
+        <v>-2.466415166854858</v>
       </c>
       <c r="DY2">
-        <v>6.559457302093506</v>
+        <v>6.44225549697876</v>
       </c>
       <c r="DZ2">
-        <v>1.539544582366943</v>
+        <v>2.277047872543335</v>
       </c>
       <c r="EA2">
-        <v>1.791836142539978</v>
+        <v>2.229432106018066</v>
       </c>
       <c r="EB2">
-        <v>-0.1777787655591965</v>
+        <v>-0.2672117352485657</v>
       </c>
       <c r="EC2">
-        <v>-0.2808043658733368</v>
+        <v>0.3299620449542999</v>
       </c>
       <c r="ED2">
-        <v>7.630791664123535</v>
+        <v>7.137576103210449</v>
       </c>
       <c r="EE2">
-        <v>0.2531172931194305</v>
+        <v>0.1289988607168198</v>
       </c>
       <c r="EF2">
-        <v>15.84647083282471</v>
+        <v>15.44685840606689</v>
       </c>
       <c r="EG2">
-        <v>4.353218078613281</v>
+        <v>4.253948211669922</v>
       </c>
       <c r="EH2">
-        <v>-5.756772041320801</v>
+        <v>-5.897596836090088</v>
       </c>
       <c r="EI2">
-        <v>-2.04839563369751</v>
+        <v>-1.825399875640869</v>
       </c>
       <c r="EJ2">
-        <v>-11.08876800537109</v>
+        <v>-11.33401203155518</v>
       </c>
       <c r="EK2">
-        <v>1.880509972572327</v>
+        <v>1.544596552848816</v>
       </c>
       <c r="EL2">
-        <v>-0.9261975288391113</v>
+        <v>-1.132843732833862</v>
       </c>
       <c r="EM2">
-        <v>-3.271155595779419</v>
+        <v>-3.740594863891602</v>
       </c>
       <c r="EN2">
-        <v>2.179134607315063</v>
+        <v>1.523282289505005</v>
       </c>
       <c r="EO2">
-        <v>4.691320419311523</v>
+        <v>4.113201141357422</v>
       </c>
       <c r="EP2">
-        <v>-5.351001262664795</v>
+        <v>-5.568748474121094</v>
       </c>
       <c r="EQ2">
-        <v>0.9269561767578125</v>
+        <v>1.221559047698975</v>
       </c>
       <c r="ER2">
-        <v>-1.238903284072876</v>
+        <v>-0.7228848934173584</v>
       </c>
       <c r="ES2">
-        <v>5.757479667663574</v>
+        <v>5.4400954246521</v>
       </c>
       <c r="ET2">
-        <v>-0.306109219789505</v>
+        <v>-0.02348265238106251</v>
       </c>
       <c r="EU2">
-        <v>-6.114456653594971</v>
+        <v>-6.762940406799316</v>
       </c>
       <c r="EV2">
-        <v>-9.013193130493164</v>
+        <v>-8.759634017944336</v>
       </c>
       <c r="EW2">
-        <v>-5.563774585723877</v>
+        <v>-4.990729808807373</v>
       </c>
       <c r="EX2">
-        <v>3.660687685012817</v>
+        <v>3.433803796768188</v>
       </c>
       <c r="EY2">
-        <v>2.145982503890991</v>
+        <v>1.608765959739685</v>
       </c>
       <c r="EZ2">
-        <v>-3.579165458679199</v>
+        <v>-2.888895988464355</v>
       </c>
       <c r="FA2">
-        <v>1.100751876831055</v>
+        <v>0.4055209159851074</v>
       </c>
       <c r="FB2">
-        <v>0.6558693647384644</v>
+        <v>0.8467738032341003</v>
       </c>
       <c r="FC2">
-        <v>-0.01118008513003588</v>
+        <v>0.1324063390493393</v>
       </c>
       <c r="FD2">
-        <v>1.930096030235291</v>
+        <v>2.101867437362671</v>
       </c>
       <c r="FE2">
-        <v>-11.17142105102539</v>
+        <v>-11.00792503356934</v>
       </c>
       <c r="FF2">
-        <v>-4.75542163848877</v>
+        <v>-5.050870895385742</v>
       </c>
       <c r="FG2">
-        <v>-18.72174072265625</v>
+        <v>-18.79600524902344</v>
       </c>
       <c r="FH2">
-        <v>-0.01235321350395679</v>
+        <v>0.2128448486328125</v>
       </c>
       <c r="FI2">
-        <v>1.103539705276489</v>
+        <v>1.387142181396484</v>
       </c>
       <c r="FJ2">
-        <v>10.642258644104</v>
+        <v>10.82719326019287</v>
       </c>
       <c r="FK2">
-        <v>9.111634254455566</v>
+        <v>8.756049156188965</v>
       </c>
       <c r="FL2">
-        <v>0.4674629867076874</v>
+        <v>0.00433777179569006</v>
       </c>
       <c r="FM2">
-        <v>-7.911816120147705</v>
+        <v>-7.539957046508789</v>
       </c>
       <c r="FN2">
-        <v>5.664163112640381</v>
+        <v>5.831280708312988</v>
       </c>
       <c r="FO2">
-        <v>-0.7070196270942688</v>
+        <v>-0.3548159599304199</v>
       </c>
       <c r="FP2">
-        <v>0.439787358045578</v>
+        <v>0.5079026818275452</v>
       </c>
       <c r="FQ2">
-        <v>1.024032473564148</v>
+        <v>0.8749298453330994</v>
       </c>
       <c r="FR2">
-        <v>-2.284148454666138</v>
+        <v>-2.125841617584229</v>
       </c>
       <c r="FS2">
-        <v>-0.6780068874359131</v>
+        <v>-0.9130581021308899</v>
       </c>
       <c r="FT2">
-        <v>1.475476264953613</v>
+        <v>1.19831907749176</v>
       </c>
       <c r="FU2">
-        <v>1.034580588340759</v>
+        <v>0.6207398176193237</v>
       </c>
       <c r="FV2">
-        <v>1.710493922233582</v>
+        <v>1.464512825012207</v>
       </c>
       <c r="FW2">
-        <v>-1.617823958396912</v>
+        <v>-1.988186717033386</v>
       </c>
       <c r="FX2">
-        <v>-0.3470183610916138</v>
+        <v>-0.7066742181777954</v>
       </c>
       <c r="FY2">
-        <v>-2.321121454238892</v>
+        <v>-1.845046997070312</v>
       </c>
       <c r="FZ2">
-        <v>0.3033900558948517</v>
+        <v>-0.3086930513381958</v>
       </c>
       <c r="GA2">
-        <v>-2.180038213729858</v>
+        <v>-1.749718189239502</v>
       </c>
       <c r="GB2">
-        <v>-1.24346923828125</v>
+        <v>-0.5270349383354187</v>
       </c>
       <c r="GC2">
-        <v>-3.876238107681274</v>
+        <v>-3.434159517288208</v>
       </c>
       <c r="GD2">
-        <v>-6.858327388763428</v>
+        <v>-7.803067684173584</v>
       </c>
       <c r="GE2">
-        <v>0.08180859684944153</v>
+        <v>0.09094858169555664</v>
       </c>
       <c r="GF2">
-        <v>-2.382981538772583</v>
+        <v>-2.090181112289429</v>
       </c>
       <c r="GG2">
-        <v>9.76203441619873</v>
+        <v>9.621326446533203</v>
       </c>
       <c r="GH2">
-        <v>-1.691698551177979</v>
+        <v>-1.854158043861389</v>
       </c>
       <c r="GI2">
-        <v>2.342387676239014</v>
+        <v>1.962366104125977</v>
       </c>
       <c r="GJ2">
-        <v>0.06014107540249825</v>
+        <v>-0.418953001499176</v>
       </c>
       <c r="GK2">
-        <v>7.328131675720215</v>
+        <v>7.845124244689941</v>
       </c>
       <c r="GL2">
-        <v>-9.901751518249512</v>
+        <v>-9.474771499633789</v>
       </c>
       <c r="GM2">
-        <v>0.9188029170036316</v>
+        <v>0.5761204361915588</v>
       </c>
       <c r="GN2">
-        <v>-0.6749833226203918</v>
+        <v>-1.34495484828949</v>
       </c>
       <c r="GO2">
-        <v>9.530095100402832</v>
+        <v>8.945979118347168</v>
       </c>
       <c r="GP2">
-        <v>-1.559851408004761</v>
+        <v>-1.675827383995056</v>
       </c>
       <c r="GQ2">
-        <v>1.452324151992798</v>
+        <v>1.954289555549622</v>
       </c>
       <c r="GR2">
-        <v>1.293792605400085</v>
+        <v>1.039634227752686</v>
       </c>
       <c r="GS2">
-        <v>-3.329791307449341</v>
+        <v>-3.655805110931396</v>
       </c>
       <c r="GT2">
-        <v>-0.1782955229282379</v>
+        <v>0.4117274880409241</v>
       </c>
       <c r="GU2">
-        <v>-1.957877278327942</v>
+        <v>-1.877869129180908</v>
       </c>
       <c r="GV2">
-        <v>-0.7273128032684326</v>
+        <v>-0.7721903324127197</v>
       </c>
       <c r="GW2">
-        <v>5.145510196685791</v>
+        <v>4.488621711730957</v>
       </c>
       <c r="GX2">
-        <v>1.564017057418823</v>
+        <v>1.250665783882141</v>
       </c>
       <c r="GY2">
-        <v>-1.769885063171387</v>
+        <v>-2.009613275527954</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Pharmaceuticals.xlsx
+++ b/static/Models/Classification/Equation/Pharmaceuticals.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>-4.145527839660645</v>
+        <v>-4.807272434234619</v>
       </c>
       <c r="C2">
-        <v>3.534721612930298</v>
+        <v>3.788282871246338</v>
       </c>
       <c r="D2">
-        <v>-5.953060626983643</v>
+        <v>-4.563381195068359</v>
       </c>
       <c r="E2">
-        <v>1.43483293056488</v>
+        <v>-0.4125485122203827</v>
       </c>
       <c r="F2">
-        <v>0.9125462174415588</v>
+        <v>0.4386951327323914</v>
       </c>
       <c r="G2">
-        <v>-0.8930469155311584</v>
+        <v>-1.340261936187744</v>
       </c>
       <c r="H2">
-        <v>-0.2872592508792877</v>
+        <v>0.116493821144104</v>
       </c>
       <c r="I2">
-        <v>2.364761352539062</v>
+        <v>2.296012401580811</v>
       </c>
       <c r="J2">
-        <v>-5.284080982208252</v>
+        <v>-5.11436128616333</v>
       </c>
       <c r="K2">
-        <v>-0.8101958632469177</v>
+        <v>1.111501574516296</v>
       </c>
       <c r="L2">
-        <v>-2.240127325057983</v>
+        <v>-0.0534781701862812</v>
       </c>
       <c r="M2">
-        <v>0.7491951584815979</v>
+        <v>0.7538335919380188</v>
       </c>
       <c r="N2">
-        <v>1.020843744277954</v>
+        <v>0.2748223841190338</v>
       </c>
       <c r="O2">
-        <v>-12.62445259094238</v>
+        <v>-11.65614604949951</v>
       </c>
       <c r="P2">
-        <v>-5.696100234985352</v>
+        <v>-6.609015464782715</v>
       </c>
       <c r="Q2">
-        <v>-6.553540229797363</v>
+        <v>-7.6617431640625</v>
       </c>
       <c r="R2">
-        <v>-0.6682217121124268</v>
+        <v>0.8426281213760376</v>
       </c>
       <c r="S2">
-        <v>3.526121616363525</v>
+        <v>3.383732318878174</v>
       </c>
       <c r="T2">
-        <v>4.635120391845703</v>
+        <v>5.225577831268311</v>
       </c>
       <c r="U2">
-        <v>-0.1896155029535294</v>
+        <v>-0.5656653046607971</v>
       </c>
       <c r="V2">
-        <v>1.185926795005798</v>
+        <v>1.159788489341736</v>
       </c>
       <c r="W2">
-        <v>0.4869701266288757</v>
+        <v>1.000825643539429</v>
       </c>
       <c r="X2">
-        <v>-0.8971108794212341</v>
+        <v>-0.5314754843711853</v>
       </c>
       <c r="Y2">
-        <v>8.454085350036621</v>
+        <v>6.762409687042236</v>
       </c>
       <c r="Z2">
-        <v>-1.184513211250305</v>
+        <v>-1.769009113311768</v>
       </c>
       <c r="AA2">
-        <v>3.040774345397949</v>
+        <v>2.370439052581787</v>
       </c>
       <c r="AB2">
-        <v>-0.9222433567047119</v>
+        <v>-3.408419370651245</v>
       </c>
       <c r="AC2">
-        <v>-10.82491588592529</v>
+        <v>-11.12381076812744</v>
       </c>
       <c r="AD2">
-        <v>-0.5651729106903076</v>
+        <v>-0.199807345867157</v>
       </c>
       <c r="AE2">
-        <v>1.866875171661377</v>
+        <v>1.924911856651306</v>
       </c>
       <c r="AF2">
-        <v>0.3552195429801941</v>
+        <v>-0.4451090395450592</v>
       </c>
       <c r="AG2">
-        <v>-5.478743553161621</v>
+        <v>-5.83980131149292</v>
       </c>
       <c r="AH2">
-        <v>-6.16033411026001</v>
+        <v>-7.814932346343994</v>
       </c>
       <c r="AI2">
-        <v>-3.21377420425415</v>
+        <v>-4.035021781921387</v>
       </c>
       <c r="AJ2">
-        <v>0.9420844316482544</v>
+        <v>1.368983030319214</v>
       </c>
       <c r="AK2">
-        <v>1.098887324333191</v>
+        <v>1.472561836242676</v>
       </c>
       <c r="AL2">
-        <v>-0.1565904319286346</v>
+        <v>-0.7409519553184509</v>
       </c>
       <c r="AM2">
-        <v>4.63779878616333</v>
+        <v>6.462236404418945</v>
       </c>
       <c r="AN2">
-        <v>-11.19676876068115</v>
+        <v>-10.58011150360107</v>
       </c>
       <c r="AO2">
-        <v>0.05829382315278053</v>
+        <v>-0.0113848764449358</v>
       </c>
       <c r="AP2">
-        <v>4.854406833648682</v>
+        <v>5.473635196685791</v>
       </c>
       <c r="AQ2">
-        <v>2.530264854431152</v>
+        <v>1.530286073684692</v>
       </c>
       <c r="AR2">
-        <v>12.58461093902588</v>
+        <v>10.13617610931396</v>
       </c>
       <c r="AS2">
-        <v>-6.010230541229248</v>
+        <v>-5.832236766815186</v>
       </c>
       <c r="AT2">
-        <v>0.3537819087505341</v>
+        <v>2.412985324859619</v>
       </c>
       <c r="AU2">
-        <v>-0.3220874965190887</v>
+        <v>-0.06238564848899841</v>
       </c>
       <c r="AV2">
-        <v>1.79307234287262</v>
+        <v>2.494972705841064</v>
       </c>
       <c r="AW2">
-        <v>1.006105899810791</v>
+        <v>0.8220264911651611</v>
       </c>
       <c r="AX2">
-        <v>-0.4265550673007965</v>
+        <v>-0.9313036203384399</v>
       </c>
       <c r="AY2">
-        <v>-6.58500337600708</v>
+        <v>-5.729453563690186</v>
       </c>
       <c r="AZ2">
-        <v>-9.618212699890137</v>
+        <v>-11.17581844329834</v>
       </c>
       <c r="BA2">
-        <v>-2.374891519546509</v>
+        <v>-1.304995656013489</v>
       </c>
       <c r="BB2">
-        <v>-3.051756381988525</v>
+        <v>-4.49801778793335</v>
       </c>
       <c r="BC2">
-        <v>-1.292131185531616</v>
+        <v>-1.987929344177246</v>
       </c>
       <c r="BD2">
-        <v>-0.3245100975036621</v>
+        <v>0.06741660833358765</v>
       </c>
       <c r="BE2">
-        <v>-1.848332762718201</v>
+        <v>-0.8235034942626953</v>
       </c>
       <c r="BF2">
-        <v>-1.968908190727234</v>
+        <v>-3.298440217971802</v>
       </c>
       <c r="BG2">
-        <v>-0.5372629165649414</v>
+        <v>-0.529148280620575</v>
       </c>
       <c r="BH2">
-        <v>1.187020778656006</v>
+        <v>-0.5045533180236816</v>
       </c>
       <c r="BI2">
-        <v>-3.709658145904541</v>
+        <v>-2.860131502151489</v>
       </c>
       <c r="BJ2">
-        <v>-5.443923950195312</v>
+        <v>-5.514450073242188</v>
       </c>
       <c r="BK2">
-        <v>-1.567731261253357</v>
+        <v>-0.1466720998287201</v>
       </c>
       <c r="BL2">
-        <v>7.883350849151611</v>
+        <v>7.046158313751221</v>
       </c>
       <c r="BM2">
-        <v>-6.01943302154541</v>
+        <v>-5.267687320709229</v>
       </c>
       <c r="BN2">
-        <v>0.3387698233127594</v>
+        <v>-0.3377266228199005</v>
       </c>
       <c r="BO2">
-        <v>-11.67943286895752</v>
+        <v>-10.38079833984375</v>
       </c>
       <c r="BP2">
-        <v>-3.928435564041138</v>
+        <v>-6.375460624694824</v>
       </c>
       <c r="BQ2">
-        <v>4.57726001739502</v>
+        <v>6.487094402313232</v>
       </c>
       <c r="BR2">
-        <v>-2.795302867889404</v>
+        <v>-0.9280161261558533</v>
       </c>
       <c r="BS2">
-        <v>1.286548376083374</v>
+        <v>0.6368472576141357</v>
       </c>
       <c r="BT2">
-        <v>-2.077448606491089</v>
+        <v>-2.747158765792847</v>
       </c>
       <c r="BU2">
-        <v>2.887909173965454</v>
+        <v>2.523823976516724</v>
       </c>
       <c r="BV2">
-        <v>5.033551216125488</v>
+        <v>3.392910003662109</v>
       </c>
       <c r="BW2">
-        <v>0.343795508146286</v>
+        <v>0.1672020256519318</v>
       </c>
       <c r="BX2">
-        <v>-1.613304257392883</v>
+        <v>-1.612815260887146</v>
       </c>
       <c r="BY2">
-        <v>-0.6085361242294312</v>
+        <v>-1.539762616157532</v>
       </c>
       <c r="BZ2">
-        <v>-6.953756809234619</v>
+        <v>-6.859852313995361</v>
       </c>
       <c r="CA2">
-        <v>4.613831996917725</v>
+        <v>4.344962596893311</v>
       </c>
       <c r="CB2">
-        <v>1.438737034797668</v>
+        <v>0.5202957391738892</v>
       </c>
       <c r="CC2">
-        <v>3.057589769363403</v>
+        <v>3.136842489242554</v>
       </c>
       <c r="CD2">
-        <v>-0.6012694239616394</v>
+        <v>-0.3835031986236572</v>
       </c>
       <c r="CE2">
-        <v>4.76884126663208</v>
+        <v>4.483771800994873</v>
       </c>
       <c r="CF2">
-        <v>0.4009379148483276</v>
+        <v>-1.057832598686218</v>
       </c>
       <c r="CG2">
-        <v>-7.403282165527344</v>
+        <v>-8.295821189880371</v>
       </c>
       <c r="CH2">
-        <v>-12.7106409072876</v>
+        <v>-13.02066135406494</v>
       </c>
       <c r="CI2">
-        <v>1.317221283912659</v>
+        <v>1.206132769584656</v>
       </c>
       <c r="CJ2">
-        <v>-3.12092399597168</v>
+        <v>-3.873587846755981</v>
       </c>
       <c r="CK2">
-        <v>0.2388280034065247</v>
+        <v>-0.07893527299165726</v>
       </c>
       <c r="CL2">
-        <v>-0.9832223653793335</v>
+        <v>-1.042071461677551</v>
       </c>
       <c r="CM2">
-        <v>3.691372394561768</v>
+        <v>3.995389699935913</v>
       </c>
       <c r="CN2">
-        <v>-0.1707687675952911</v>
+        <v>0.7023383378982544</v>
       </c>
       <c r="CO2">
-        <v>-0.7215737104415894</v>
+        <v>-0.8427329659461975</v>
       </c>
       <c r="CP2">
-        <v>8.958539009094238</v>
+        <v>8.265711784362793</v>
       </c>
       <c r="CQ2">
-        <v>8.784982681274414</v>
+        <v>9.446812629699707</v>
       </c>
       <c r="CR2">
-        <v>-0.3676140606403351</v>
+        <v>-2.383487939834595</v>
       </c>
       <c r="CS2">
-        <v>0.05139794200658798</v>
+        <v>0.3456254601478577</v>
       </c>
       <c r="CT2">
-        <v>-0.6659488677978516</v>
+        <v>-0.5081648230552673</v>
       </c>
       <c r="CU2">
-        <v>0.0804269015789032</v>
+        <v>1.915213823318481</v>
       </c>
       <c r="CV2">
-        <v>0.9659758806228638</v>
+        <v>-0.6498196721076965</v>
       </c>
       <c r="CW2">
-        <v>-3.675068378448486</v>
+        <v>-3.331684589385986</v>
       </c>
       <c r="CX2">
-        <v>2.110095739364624</v>
+        <v>1.044591188430786</v>
       </c>
       <c r="CY2">
-        <v>6.800381183624268</v>
+        <v>6.175509452819824</v>
       </c>
       <c r="CZ2">
-        <v>-0.5457264184951782</v>
+        <v>-1.135445356369019</v>
       </c>
       <c r="DA2">
-        <v>-3.869797468185425</v>
+        <v>-3.826249122619629</v>
       </c>
       <c r="DB2">
-        <v>0.8643280267715454</v>
+        <v>2.483450174331665</v>
       </c>
       <c r="DC2">
-        <v>0.5824236869812012</v>
+        <v>-0.5875969529151917</v>
       </c>
       <c r="DD2">
-        <v>-6.013527393341064</v>
+        <v>-6.885858535766602</v>
       </c>
       <c r="DE2">
-        <v>-1.8729168176651</v>
+        <v>-2.087085008621216</v>
       </c>
       <c r="DF2">
-        <v>6.745519638061523</v>
+        <v>5.749314785003662</v>
       </c>
       <c r="DG2">
-        <v>2.030459880828857</v>
+        <v>0.7614794969558716</v>
       </c>
       <c r="DH2">
-        <v>8.094363212585449</v>
+        <v>6.678963184356689</v>
       </c>
       <c r="DI2">
-        <v>-0.2606256604194641</v>
+        <v>-0.8471701145172119</v>
       </c>
       <c r="DJ2">
-        <v>2.330055952072144</v>
+        <v>3.303063154220581</v>
       </c>
       <c r="DK2">
-        <v>-12.47513484954834</v>
+        <v>-9.8763427734375</v>
       </c>
       <c r="DL2">
-        <v>-0.1261597275733948</v>
+        <v>0.4994205832481384</v>
       </c>
       <c r="DM2">
-        <v>-3.746417999267578</v>
+        <v>-2.124974489212036</v>
       </c>
       <c r="DN2">
-        <v>-0.8133592009544373</v>
+        <v>-0.8431317210197449</v>
       </c>
       <c r="DO2">
-        <v>-24.88302421569824</v>
+        <v>-22.67353439331055</v>
       </c>
       <c r="DP2">
-        <v>2.349420070648193</v>
+        <v>1.762247443199158</v>
       </c>
       <c r="DQ2">
-        <v>-0.8241328001022339</v>
+        <v>-0.809956967830658</v>
       </c>
       <c r="DR2">
-        <v>-0.7734073996543884</v>
+        <v>-2.203538656234741</v>
       </c>
       <c r="DS2">
-        <v>0.4600237309932709</v>
+        <v>0.8783541321754456</v>
       </c>
       <c r="DT2">
-        <v>-7.993415355682373</v>
+        <v>-8.003844261169434</v>
       </c>
       <c r="DU2">
-        <v>-4.032923221588135</v>
+        <v>-4.071067333221436</v>
       </c>
       <c r="DV2">
-        <v>0.1264882385730743</v>
+        <v>-1.337005138397217</v>
       </c>
       <c r="DW2">
-        <v>-0.5223878026008606</v>
+        <v>1.222655534744263</v>
       </c>
       <c r="DX2">
-        <v>-2.466415166854858</v>
+        <v>-2.319503545761108</v>
       </c>
       <c r="DY2">
-        <v>6.44225549697876</v>
+        <v>7.652191162109375</v>
       </c>
       <c r="DZ2">
-        <v>2.277047872543335</v>
+        <v>0.521232008934021</v>
       </c>
       <c r="EA2">
-        <v>2.229432106018066</v>
+        <v>2.93605637550354</v>
       </c>
       <c r="EB2">
-        <v>-0.2672117352485657</v>
+        <v>0.01808226481080055</v>
       </c>
       <c r="EC2">
-        <v>0.3299620449542999</v>
+        <v>-1.517569065093994</v>
       </c>
       <c r="ED2">
-        <v>7.137576103210449</v>
+        <v>7.849668502807617</v>
       </c>
       <c r="EE2">
-        <v>0.1289988607168198</v>
+        <v>0.3225502371788025</v>
       </c>
       <c r="EF2">
-        <v>15.44685840606689</v>
+        <v>13.90919589996338</v>
       </c>
       <c r="EG2">
-        <v>4.253948211669922</v>
+        <v>4.003162860870361</v>
       </c>
       <c r="EH2">
-        <v>-5.897596836090088</v>
+        <v>-6.876341342926025</v>
       </c>
       <c r="EI2">
-        <v>-1.825399875640869</v>
+        <v>-1.942860841751099</v>
       </c>
       <c r="EJ2">
-        <v>-11.33401203155518</v>
+        <v>-12.76228904724121</v>
       </c>
       <c r="EK2">
-        <v>1.544596552848816</v>
+        <v>1.353613495826721</v>
       </c>
       <c r="EL2">
-        <v>-1.132843732833862</v>
+        <v>-0.9709196090698242</v>
       </c>
       <c r="EM2">
-        <v>-3.740594863891602</v>
+        <v>-5.669894695281982</v>
       </c>
       <c r="EN2">
-        <v>1.523282289505005</v>
+        <v>1.9633868932724</v>
       </c>
       <c r="EO2">
-        <v>4.113201141357422</v>
+        <v>4.607677936553955</v>
       </c>
       <c r="EP2">
-        <v>-5.568748474121094</v>
+        <v>-4.600056171417236</v>
       </c>
       <c r="EQ2">
-        <v>1.221559047698975</v>
+        <v>0.5373856425285339</v>
       </c>
       <c r="ER2">
-        <v>-0.7228848934173584</v>
+        <v>-0.02462676353752613</v>
       </c>
       <c r="ES2">
-        <v>5.4400954246521</v>
+        <v>3.764562606811523</v>
       </c>
       <c r="ET2">
-        <v>-0.02348265238106251</v>
+        <v>-0.6247051954269409</v>
       </c>
       <c r="EU2">
-        <v>-6.762940406799316</v>
+        <v>-6.356929779052734</v>
       </c>
       <c r="EV2">
-        <v>-8.759634017944336</v>
+        <v>-10.31630611419678</v>
       </c>
       <c r="EW2">
-        <v>-4.990729808807373</v>
+        <v>-3.907300710678101</v>
       </c>
       <c r="EX2">
-        <v>3.433803796768188</v>
+        <v>4.88754940032959</v>
       </c>
       <c r="EY2">
-        <v>1.608765959739685</v>
+        <v>1.309884905815125</v>
       </c>
       <c r="EZ2">
-        <v>-2.888895988464355</v>
+        <v>-2.55157732963562</v>
       </c>
       <c r="FA2">
-        <v>0.4055209159851074</v>
+        <v>0.2131308019161224</v>
       </c>
       <c r="FB2">
-        <v>0.8467738032341003</v>
+        <v>0.9792939424514771</v>
       </c>
       <c r="FC2">
-        <v>0.1324063390493393</v>
+        <v>-1.107467532157898</v>
       </c>
       <c r="FD2">
-        <v>2.101867437362671</v>
+        <v>1.50219202041626</v>
       </c>
       <c r="FE2">
-        <v>-11.00792503356934</v>
+        <v>-10.21805286407471</v>
       </c>
       <c r="FF2">
-        <v>-5.050870895385742</v>
+        <v>-4.31878137588501</v>
       </c>
       <c r="FG2">
-        <v>-18.79600524902344</v>
+        <v>-18.42457580566406</v>
       </c>
       <c r="FH2">
-        <v>0.2128448486328125</v>
+        <v>0.1009309217333794</v>
       </c>
       <c r="FI2">
-        <v>1.387142181396484</v>
+        <v>2.315312623977661</v>
       </c>
       <c r="FJ2">
-        <v>10.82719326019287</v>
+        <v>10.92356586456299</v>
       </c>
       <c r="FK2">
-        <v>8.756049156188965</v>
+        <v>7.801025867462158</v>
       </c>
       <c r="FL2">
-        <v>0.00433777179569006</v>
+        <v>-2.075301647186279</v>
       </c>
       <c r="FM2">
-        <v>-7.539957046508789</v>
+        <v>-8.957988739013672</v>
       </c>
       <c r="FN2">
-        <v>5.831280708312988</v>
+        <v>5.202199459075928</v>
       </c>
       <c r="FO2">
-        <v>-0.3548159599304199</v>
+        <v>-1.24270498752594</v>
       </c>
       <c r="FP2">
-        <v>0.5079026818275452</v>
+        <v>0.3801719844341278</v>
       </c>
       <c r="FQ2">
-        <v>0.8749298453330994</v>
+        <v>1.064000844955444</v>
       </c>
       <c r="FR2">
-        <v>-2.125841617584229</v>
+        <v>-2.029120683670044</v>
       </c>
       <c r="FS2">
-        <v>-0.9130581021308899</v>
+        <v>-0.7861729264259338</v>
       </c>
       <c r="FT2">
-        <v>1.19831907749176</v>
+        <v>1.211645364761353</v>
       </c>
       <c r="FU2">
-        <v>0.6207398176193237</v>
+        <v>1.540684938430786</v>
       </c>
       <c r="FV2">
-        <v>1.464512825012207</v>
+        <v>1.022110104560852</v>
       </c>
       <c r="FW2">
-        <v>-1.988186717033386</v>
+        <v>-1.747830152511597</v>
       </c>
       <c r="FX2">
-        <v>-0.7066742181777954</v>
+        <v>-1.696775197982788</v>
       </c>
       <c r="FY2">
-        <v>-1.845046997070312</v>
+        <v>-0.2205403000116348</v>
       </c>
       <c r="FZ2">
-        <v>-0.3086930513381958</v>
+        <v>1.518868207931519</v>
       </c>
       <c r="GA2">
-        <v>-1.749718189239502</v>
+        <v>-1.532851457595825</v>
       </c>
       <c r="GB2">
-        <v>-0.5270349383354187</v>
+        <v>-0.6110871434211731</v>
       </c>
       <c r="GC2">
-        <v>-3.434159517288208</v>
+        <v>-2.754894495010376</v>
       </c>
       <c r="GD2">
-        <v>-7.803067684173584</v>
+        <v>-7.598162651062012</v>
       </c>
       <c r="GE2">
-        <v>0.09094858169555664</v>
+        <v>0.1961219310760498</v>
       </c>
       <c r="GF2">
-        <v>-2.090181112289429</v>
+        <v>-1.860904335975647</v>
       </c>
       <c r="GG2">
-        <v>9.621326446533203</v>
+        <v>9.594174385070801</v>
       </c>
       <c r="GH2">
-        <v>-1.854158043861389</v>
+        <v>-1.903936982154846</v>
       </c>
       <c r="GI2">
-        <v>1.962366104125977</v>
+        <v>-0.145346462726593</v>
       </c>
       <c r="GJ2">
-        <v>-0.418953001499176</v>
+        <v>1.449554562568665</v>
       </c>
       <c r="GK2">
-        <v>7.845124244689941</v>
+        <v>8.270511627197266</v>
       </c>
       <c r="GL2">
-        <v>-9.474771499633789</v>
+        <v>-10.63322353363037</v>
       </c>
       <c r="GM2">
-        <v>0.5761204361915588</v>
+        <v>-0.8532916307449341</v>
       </c>
       <c r="GN2">
-        <v>-1.34495484828949</v>
+        <v>-2.869759798049927</v>
       </c>
       <c r="GO2">
-        <v>8.945979118347168</v>
+        <v>8.11088752746582</v>
       </c>
       <c r="GP2">
-        <v>-1.675827383995056</v>
+        <v>-1.279542922973633</v>
       </c>
       <c r="GQ2">
-        <v>1.954289555549622</v>
+        <v>-0.1807458847761154</v>
       </c>
       <c r="GR2">
-        <v>1.039634227752686</v>
+        <v>1.280486583709717</v>
       </c>
       <c r="GS2">
-        <v>-3.655805110931396</v>
+        <v>-4.454918384552002</v>
       </c>
       <c r="GT2">
-        <v>0.4117274880409241</v>
+        <v>0.1869157701730728</v>
       </c>
       <c r="GU2">
-        <v>-1.877869129180908</v>
+        <v>-1.839303016662598</v>
       </c>
       <c r="GV2">
-        <v>-0.7721903324127197</v>
+        <v>0.5211522579193115</v>
       </c>
       <c r="GW2">
-        <v>4.488621711730957</v>
+        <v>2.861982107162476</v>
       </c>
       <c r="GX2">
-        <v>1.250665783882141</v>
+        <v>0.8211550712585449</v>
       </c>
       <c r="GY2">
-        <v>-2.009613275527954</v>
+        <v>-1.758906602859497</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Pharmaceuticals.xlsx
+++ b/static/Models/Classification/Equation/Pharmaceuticals.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-5.090299129486084</v>
+        <v>-4.393369197845459</v>
       </c>
       <c r="C2" t="n">
-        <v>3.602787971496582</v>
+        <v>4.352174758911133</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.101874351501465</v>
+        <v>-4.710954666137695</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.14687180519104</v>
+        <v>-0.5977269411087036</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8340016007423401</v>
+        <v>1.486618638038635</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.863098859786987</v>
+        <v>-1.184638738632202</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.2319097071886063</v>
+        <v>-0.3850107491016388</v>
       </c>
       <c r="I2" t="n">
-        <v>2.389656782150269</v>
+        <v>1.96254551410675</v>
       </c>
       <c r="J2" t="n">
-        <v>-5.722174644470215</v>
+        <v>-6.223659038543701</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5817363858222961</v>
+        <v>-0.1038150489330292</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.8861305117607117</v>
+        <v>-0.6907910704612732</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9255208373069763</v>
+        <v>1.416876435279846</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9773781299591064</v>
+        <v>0.4909746050834656</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.05486106872559</v>
+        <v>-11.74439239501953</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.780038833618164</v>
+        <v>-5.205446720123291</v>
       </c>
       <c r="Q2" t="n">
-        <v>-7.664341449737549</v>
+        <v>-7.178713798522949</v>
       </c>
       <c r="R2" t="n">
-        <v>1.223384857177734</v>
+        <v>1.816349506378174</v>
       </c>
       <c r="S2" t="n">
-        <v>2.874214649200439</v>
+        <v>2.603867769241333</v>
       </c>
       <c r="T2" t="n">
-        <v>5.200764656066895</v>
+        <v>5.496928215026855</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.5711169242858887</v>
+        <v>0.1018848940730095</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8754509687423706</v>
+        <v>1.376117825508118</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1551971882581711</v>
+        <v>-0.4198413193225861</v>
       </c>
       <c r="X2" t="n">
-        <v>0.08702540397644043</v>
+        <v>0.5927878022193909</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.085553169250488</v>
+        <v>6.5859055519104</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.26388680934906</v>
+        <v>-1.780111789703369</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.035231351852417</v>
+        <v>2.645112752914429</v>
       </c>
       <c r="AB2" t="n">
-        <v>-2.740617990493774</v>
+        <v>-3.04297661781311</v>
       </c>
       <c r="AC2" t="n">
-        <v>-11.27101516723633</v>
+        <v>-10.96933937072754</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.05806994810700417</v>
+        <v>-0.06443913280963898</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.970381498336792</v>
+        <v>0.4639452695846558</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.096879601478577</v>
+        <v>-1.447636961936951</v>
       </c>
       <c r="AG2" t="n">
-        <v>-5.342328548431396</v>
+        <v>-4.535418033599854</v>
       </c>
       <c r="AH2" t="n">
-        <v>-7.436275959014893</v>
+        <v>-8.010941505432129</v>
       </c>
       <c r="AI2" t="n">
-        <v>-3.569714546203613</v>
+        <v>-3.483421325683594</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.414496541023254</v>
+        <v>0.8095085620880127</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.021418571472168</v>
+        <v>0.8747192025184631</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.048369288444519</v>
+        <v>-0.5823737978935242</v>
       </c>
       <c r="AM2" t="n">
-        <v>6.194469451904297</v>
+        <v>5.826000213623047</v>
       </c>
       <c r="AN2" t="n">
-        <v>-10.07595920562744</v>
+        <v>-9.91750431060791</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.197889044880867</v>
+        <v>0.4890990555286407</v>
       </c>
       <c r="AP2" t="n">
-        <v>5.101571559906006</v>
+        <v>5.720712184906006</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.829332590103149</v>
+        <v>2.339118003845215</v>
       </c>
       <c r="AR2" t="n">
-        <v>10.4666633605957</v>
+        <v>10.96265697479248</v>
       </c>
       <c r="AS2" t="n">
-        <v>-5.208549022674561</v>
+        <v>-4.934568881988525</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.299956798553467</v>
+        <v>1.94618809223175</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.1180270984768867</v>
+        <v>0.3844992816448212</v>
       </c>
       <c r="AV2" t="n">
-        <v>2.132060289382935</v>
+        <v>2.925076246261597</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.609312117099762</v>
+        <v>-0.1158736944198608</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.8578262329101562</v>
+        <v>-1.25528085231781</v>
       </c>
       <c r="AY2" t="n">
-        <v>-6.62113618850708</v>
+        <v>-7.182152271270752</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-10.22967624664307</v>
+        <v>-10.80638790130615</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.988816499710083</v>
+        <v>-0.508344829082489</v>
       </c>
       <c r="BB2" t="n">
-        <v>-5.101626396179199</v>
+        <v>-4.305280685424805</v>
       </c>
       <c r="BC2" t="n">
-        <v>-1.555496215820312</v>
+        <v>-2.02876615524292</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.3597591519355774</v>
+        <v>0.2086893171072006</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.1473395228385925</v>
+        <v>-0.7471803426742554</v>
       </c>
       <c r="BF2" t="n">
-        <v>-2.79204797744751</v>
+        <v>-2.123831987380981</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.2586334943771362</v>
+        <v>-0.1921682506799698</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.164997860789299</v>
+        <v>0.2625063955783844</v>
       </c>
       <c r="BI2" t="n">
-        <v>-2.997264623641968</v>
+        <v>-3.013890743255615</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-6.223402500152588</v>
+        <v>-6.771805763244629</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.328757256269455</v>
+        <v>-0.7875661253929138</v>
       </c>
       <c r="BL2" t="n">
-        <v>6.766603946685791</v>
+        <v>6.180584907531738</v>
       </c>
       <c r="BM2" t="n">
-        <v>-5.737060546875</v>
+        <v>-5.256981372833252</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.3072288930416107</v>
+        <v>-0.01485986262559891</v>
       </c>
       <c r="BO2" t="n">
-        <v>-11.20815277099609</v>
+        <v>-11.79169082641602</v>
       </c>
       <c r="BP2" t="n">
-        <v>-5.772003650665283</v>
+        <v>-5.388276100158691</v>
       </c>
       <c r="BQ2" t="n">
-        <v>7.171229362487793</v>
+        <v>6.548510551452637</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.646489143371582</v>
+        <v>-0.760083794593811</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.09153050929307938</v>
+        <v>0.3457957208156586</v>
       </c>
       <c r="BT2" t="n">
-        <v>-2.168398141860962</v>
+        <v>-2.472372531890869</v>
       </c>
       <c r="BU2" t="n">
-        <v>2.851172924041748</v>
+        <v>3.006679773330688</v>
       </c>
       <c r="BV2" t="n">
-        <v>2.694456338882446</v>
+        <v>3.390838623046875</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.6421886682510376</v>
+        <v>0.02685919217765331</v>
       </c>
       <c r="BX2" t="n">
-        <v>-1.166569352149963</v>
+        <v>-1.701389074325562</v>
       </c>
       <c r="BY2" t="n">
-        <v>-1.269978284835815</v>
+        <v>-1.334990262985229</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-7.136056423187256</v>
+        <v>-6.591849327087402</v>
       </c>
       <c r="CA2" t="n">
-        <v>4.06818675994873</v>
+        <v>4.518474102020264</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.134330153465271</v>
+        <v>1.511379599571228</v>
       </c>
       <c r="CC2" t="n">
-        <v>3.236682176589966</v>
+        <v>3.042032718658447</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.1405164003372192</v>
+        <v>-0.5542487502098083</v>
       </c>
       <c r="CE2" t="n">
-        <v>4.841575145721436</v>
+        <v>5.715460777282715</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.5527557730674744</v>
+        <v>-1.15427577495575</v>
       </c>
       <c r="CG2" t="n">
-        <v>-7.56213903427124</v>
+        <v>-8.221495628356934</v>
       </c>
       <c r="CH2" t="n">
-        <v>-13.97236347198486</v>
+        <v>-14.60676670074463</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.511895537376404</v>
+        <v>1.195296168327332</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-3.459782361984253</v>
+        <v>-3.669688940048218</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.2416266202926636</v>
+        <v>-0.1074655652046204</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.7397788166999817</v>
+        <v>-1.153888344764709</v>
       </c>
       <c r="CM2" t="n">
-        <v>4.47843599319458</v>
+        <v>4.714502811431885</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.208670020103455</v>
+        <v>0.599886417388916</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.965348482131958</v>
+        <v>-1.382898688316345</v>
       </c>
       <c r="CP2" t="n">
-        <v>8.289175987243652</v>
+        <v>8.001001358032227</v>
       </c>
       <c r="CQ2" t="n">
-        <v>9.828804016113281</v>
+        <v>9.232424736022949</v>
       </c>
       <c r="CR2" t="n">
-        <v>-1.902549624443054</v>
+        <v>-1.232187628746033</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.5853003263473511</v>
+        <v>0.2317217588424683</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.309924840927124</v>
+        <v>-0.468463808298111</v>
       </c>
       <c r="CU2" t="n">
-        <v>2.342537403106689</v>
+        <v>2.514678716659546</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.1874290108680725</v>
+        <v>0.9517686367034912</v>
       </c>
       <c r="CW2" t="n">
-        <v>-3.702204942703247</v>
+        <v>-3.271387100219727</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.7281821370124817</v>
+        <v>0.117360845208168</v>
       </c>
       <c r="CY2" t="n">
-        <v>6.242712497711182</v>
+        <v>5.602317810058594</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.4147176444530487</v>
+        <v>-0.4332515299320221</v>
       </c>
       <c r="DA2" t="n">
-        <v>-3.217026233673096</v>
+        <v>-3.768773794174194</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.934053897857666</v>
+        <v>1.321538209915161</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.8677764534950256</v>
+        <v>-1.454966187477112</v>
       </c>
       <c r="DD2" t="n">
-        <v>-6.552150726318359</v>
+        <v>-7.036753177642822</v>
       </c>
       <c r="DE2" t="n">
-        <v>-1.766062378883362</v>
+        <v>-2.076737880706787</v>
       </c>
       <c r="DF2" t="n">
-        <v>5.400749683380127</v>
+        <v>6.059208393096924</v>
       </c>
       <c r="DG2" t="n">
-        <v>1.614178657531738</v>
+        <v>1.053908705711365</v>
       </c>
       <c r="DH2" t="n">
-        <v>6.319257736206055</v>
+        <v>6.790477752685547</v>
       </c>
       <c r="DI2" t="n">
-        <v>-1.899219036102295</v>
+        <v>-1.29853081703186</v>
       </c>
       <c r="DJ2" t="n">
-        <v>2.757521390914917</v>
+        <v>3.219543933868408</v>
       </c>
       <c r="DK2" t="n">
-        <v>-9.538202285766602</v>
+        <v>-9.073955535888672</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.08216958492994308</v>
+        <v>-0.7754253745079041</v>
       </c>
       <c r="DM2" t="n">
-        <v>-2.947098731994629</v>
+        <v>-2.437314748764038</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.6095651984214783</v>
+        <v>-0.2223182916641235</v>
       </c>
       <c r="DO2" t="n">
-        <v>-22.2774486541748</v>
+        <v>-23.1125316619873</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.485644102096558</v>
+        <v>2.090079069137573</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.5394802689552307</v>
+        <v>-0.2590581178665161</v>
       </c>
       <c r="DR2" t="n">
-        <v>-1.739414811134338</v>
+        <v>-1.24589467048645</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.3274001479148865</v>
+        <v>0.9203047156333923</v>
       </c>
       <c r="DT2" t="n">
-        <v>-8.652764320373535</v>
+        <v>-7.536369800567627</v>
       </c>
       <c r="DU2" t="n">
-        <v>-3.366224050521851</v>
+        <v>-3.925240039825439</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.6219765543937683</v>
+        <v>-0.2196303158998489</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.224949717521667</v>
+        <v>0.7210284471511841</v>
       </c>
       <c r="DX2" t="n">
-        <v>-2.133844137191772</v>
+        <v>-2.267386913299561</v>
       </c>
       <c r="DY2" t="n">
-        <v>8.037837028503418</v>
+        <v>7.380796432495117</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.2920222878456116</v>
+        <v>0.5728312730789185</v>
       </c>
       <c r="EA2" t="n">
-        <v>2.426188468933105</v>
+        <v>3.075492382049561</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.1840244084596634</v>
+        <v>0.2329847514629364</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.8122369050979614</v>
+        <v>-0.5569747686386108</v>
       </c>
       <c r="ED2" t="n">
-        <v>7.805131435394287</v>
+        <v>8.462648391723633</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.6734403371810913</v>
+        <v>0.3450945317745209</v>
       </c>
       <c r="EF2" t="n">
-        <v>13.8437671661377</v>
+        <v>14.21619319915771</v>
       </c>
       <c r="EG2" t="n">
-        <v>3.250754594802856</v>
+        <v>2.8709397315979</v>
       </c>
       <c r="EH2" t="n">
-        <v>-5.925777435302734</v>
+        <v>-6.229519367218018</v>
       </c>
       <c r="EI2" t="n">
-        <v>-1.886869311332703</v>
+        <v>-1.132081866264343</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-12.32490062713623</v>
+        <v>-11.8286714553833</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.599852800369263</v>
+        <v>1.234879493713379</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.8148418068885803</v>
+        <v>-0.6310040950775146</v>
       </c>
       <c r="EM2" t="n">
-        <v>-6.29518985748291</v>
+        <v>-5.711872100830078</v>
       </c>
       <c r="EN2" t="n">
-        <v>1.521723866462708</v>
+        <v>2.242117881774902</v>
       </c>
       <c r="EO2" t="n">
-        <v>5.285477161407471</v>
+        <v>4.668235301971436</v>
       </c>
       <c r="EP2" t="n">
-        <v>-5.507370948791504</v>
+        <v>-6.181717395782471</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.026359438896179</v>
+        <v>0.5078021883964539</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.6221377849578857</v>
+        <v>-1.233502864837646</v>
       </c>
       <c r="ES2" t="n">
-        <v>2.915729761123657</v>
+        <v>2.335587024688721</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.1372604072093964</v>
+        <v>0.9277203679084778</v>
       </c>
       <c r="EU2" t="n">
-        <v>-6.960794925689697</v>
+        <v>-6.655618667602539</v>
       </c>
       <c r="EV2" t="n">
-        <v>-9.561491012573242</v>
+        <v>-8.840226173400879</v>
       </c>
       <c r="EW2" t="n">
-        <v>-4.579570770263672</v>
+        <v>-4.34337854385376</v>
       </c>
       <c r="EX2" t="n">
-        <v>4.873754024505615</v>
+        <v>4.317790508270264</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.687576293945312</v>
+        <v>2.354580402374268</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-3.121750593185425</v>
+        <v>-3.618161678314209</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.1386920213699341</v>
+        <v>-0.3167141377925873</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.296903610229492</v>
+        <v>1.531747341156006</v>
       </c>
       <c r="FC2" t="n">
-        <v>-1.382089257240295</v>
+        <v>-1.44207227230072</v>
       </c>
       <c r="FD2" t="n">
-        <v>2.159094572067261</v>
+        <v>1.825108766555786</v>
       </c>
       <c r="FE2" t="n">
-        <v>-10.79800605773926</v>
+        <v>-10.12109279632568</v>
       </c>
       <c r="FF2" t="n">
-        <v>-4.73232364654541</v>
+        <v>-4.054349422454834</v>
       </c>
       <c r="FG2" t="n">
-        <v>-19.26333999633789</v>
+        <v>-20.02619552612305</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.3045814633369446</v>
+        <v>-0.6476128101348877</v>
       </c>
       <c r="FI2" t="n">
-        <v>1.861034870147705</v>
+        <v>1.737323045730591</v>
       </c>
       <c r="FJ2" t="n">
-        <v>11.54694080352783</v>
+        <v>12.11014938354492</v>
       </c>
       <c r="FK2" t="n">
-        <v>8.286379814147949</v>
+        <v>8.664182662963867</v>
       </c>
       <c r="FL2" t="n">
-        <v>-1.604475259780884</v>
+        <v>-1.006361365318298</v>
       </c>
       <c r="FM2" t="n">
-        <v>-9.784357070922852</v>
+        <v>-9.182835578918457</v>
       </c>
       <c r="FN2" t="n">
-        <v>4.844301223754883</v>
+        <v>4.214977264404297</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.6734821796417236</v>
+        <v>-0.04013714194297791</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.3153168559074402</v>
+        <v>0.3248497247695923</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.054657578468323</v>
+        <v>1.380161285400391</v>
       </c>
       <c r="FR2" t="n">
-        <v>-1.777498602867126</v>
+        <v>-1.430869698524475</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.5228564739227295</v>
+        <v>-0.805020272731781</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.355719923973083</v>
+        <v>1.56213104724884</v>
       </c>
       <c r="FU2" t="n">
-        <v>1.279284715652466</v>
+        <v>1.959471702575684</v>
       </c>
       <c r="FV2" t="n">
-        <v>1.352286219596863</v>
+        <v>1.278231382369995</v>
       </c>
       <c r="FW2" t="n">
-        <v>-1.675700187683105</v>
+        <v>-1.853982210159302</v>
       </c>
       <c r="FX2" t="n">
-        <v>-1.057630300521851</v>
+        <v>-1.700312376022339</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.422233372926712</v>
+        <v>1.002375602722168</v>
       </c>
       <c r="FZ2" t="n">
-        <v>2.205744504928589</v>
+        <v>2.275579690933228</v>
       </c>
       <c r="GA2" t="n">
-        <v>-1.201586008071899</v>
+        <v>-0.5246689915657043</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.2195907980203629</v>
+        <v>-0.9244737029075623</v>
       </c>
       <c r="GC2" t="n">
-        <v>-2.1294264793396</v>
+        <v>-2.710269451141357</v>
       </c>
       <c r="GD2" t="n">
-        <v>-7.012741565704346</v>
+        <v>-7.617791652679443</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.3017125427722931</v>
+        <v>0.2760694026947021</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.8504430651664734</v>
+        <v>-1.18275260925293</v>
       </c>
       <c r="GG2" t="n">
-        <v>8.775514602661133</v>
+        <v>8.226881980895996</v>
       </c>
       <c r="GH2" t="n">
-        <v>-1.501849770545959</v>
+        <v>-1.369406461715698</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.6173532605171204</v>
+        <v>-0.00410539610311389</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.6830311417579651</v>
+        <v>0.1750498265028</v>
       </c>
       <c r="GK2" t="n">
-        <v>7.625543594360352</v>
+        <v>8.382241249084473</v>
       </c>
       <c r="GL2" t="n">
-        <v>-11.39311122894287</v>
+        <v>-10.99074172973633</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.513606071472168</v>
+        <v>-0.620879590511322</v>
       </c>
       <c r="GN2" t="n">
-        <v>-2.757275581359863</v>
+        <v>-2.778995752334595</v>
       </c>
       <c r="GO2" t="n">
-        <v>8.80708122253418</v>
+        <v>9.711511611938477</v>
       </c>
       <c r="GP2" t="n">
-        <v>-1.117028117179871</v>
+        <v>-1.369083523750305</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.5954394340515137</v>
+        <v>0.04899375885725021</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.595987856388092</v>
+        <v>0.08372879028320312</v>
       </c>
       <c r="GS2" t="n">
-        <v>-4.101251602172852</v>
+        <v>-4.161640167236328</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.6661553382873535</v>
+        <v>-1.366606712341309</v>
       </c>
       <c r="GU2" t="n">
-        <v>-2.019373416900635</v>
+        <v>-2.728931665420532</v>
       </c>
       <c r="GV2" t="n">
-        <v>-0.06909190118312836</v>
+        <v>-0.6748220324516296</v>
       </c>
       <c r="GW2" t="n">
-        <v>3.515582084655762</v>
+        <v>3.732749462127686</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.119479775428772</v>
+        <v>1.096503376960754</v>
       </c>
       <c r="GY2" t="n">
-        <v>-1.488927841186523</v>
+        <v>-1.583143830299377</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Pharmaceuticals.xlsx
+++ b/static/Models/Classification/Equation/Pharmaceuticals.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4.393369197845459</v>
+        <v>-4.039888381958008</v>
       </c>
       <c r="C2" t="n">
-        <v>4.352174758911133</v>
+        <v>4.780392169952393</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.710954666137695</v>
+        <v>-4.344278335571289</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5977269411087036</v>
+        <v>-1.531708240509033</v>
       </c>
       <c r="F2" t="n">
-        <v>1.486618638038635</v>
+        <v>1.227863073348999</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.184638738632202</v>
+        <v>-1.082575082778931</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.3850107491016388</v>
+        <v>0.1653700470924377</v>
       </c>
       <c r="I2" t="n">
-        <v>1.96254551410675</v>
+        <v>1.830801248550415</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.223659038543701</v>
+        <v>-5.754091262817383</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.1038150489330292</v>
+        <v>-0.8269658088684082</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.6907910704612732</v>
+        <v>-0.3386593163013458</v>
       </c>
       <c r="M2" t="n">
-        <v>1.416876435279846</v>
+        <v>1.122748970985413</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4909746050834656</v>
+        <v>0.1737907230854034</v>
       </c>
       <c r="O2" t="n">
-        <v>-11.74439239501953</v>
+        <v>-12.19130611419678</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.205446720123291</v>
+        <v>-5.825417995452881</v>
       </c>
       <c r="Q2" t="n">
-        <v>-7.178713798522949</v>
+        <v>-7.15862512588501</v>
       </c>
       <c r="R2" t="n">
-        <v>1.816349506378174</v>
+        <v>1.146621465682983</v>
       </c>
       <c r="S2" t="n">
-        <v>2.603867769241333</v>
+        <v>2.850458860397339</v>
       </c>
       <c r="T2" t="n">
-        <v>5.496928215026855</v>
+        <v>5.194786071777344</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018848940730095</v>
+        <v>0.6680970191955566</v>
       </c>
       <c r="V2" t="n">
-        <v>1.376117825508118</v>
+        <v>1.065111875534058</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.4198413193225861</v>
+        <v>-0.8579598069190979</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5927878022193909</v>
+        <v>-0.2151932269334793</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.5859055519104</v>
+        <v>7.107437133789062</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.780111789703369</v>
+        <v>-1.144994378089905</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.645112752914429</v>
+        <v>2.231529235839844</v>
       </c>
       <c r="AB2" t="n">
-        <v>-3.04297661781311</v>
+        <v>-2.943431854248047</v>
       </c>
       <c r="AC2" t="n">
-        <v>-10.96933937072754</v>
+        <v>-11.39761257171631</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.06443913280963898</v>
+        <v>-0.3262099325656891</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.4639452695846558</v>
+        <v>0.1269078105688095</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.447636961936951</v>
+        <v>-1.23751175403595</v>
       </c>
       <c r="AG2" t="n">
-        <v>-4.535418033599854</v>
+        <v>-5.23759651184082</v>
       </c>
       <c r="AH2" t="n">
-        <v>-8.010941505432129</v>
+        <v>-7.763165473937988</v>
       </c>
       <c r="AI2" t="n">
-        <v>-3.483421325683594</v>
+        <v>-2.680565357208252</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.8095085620880127</v>
+        <v>0.08915907889604568</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.8747192025184631</v>
+        <v>0.3000272512435913</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.5823737978935242</v>
+        <v>-1.001490592956543</v>
       </c>
       <c r="AM2" t="n">
-        <v>5.826000213623047</v>
+        <v>5.296881675720215</v>
       </c>
       <c r="AN2" t="n">
-        <v>-9.91750431060791</v>
+        <v>-9.262293815612793</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.4890990555286407</v>
+        <v>1.098792552947998</v>
       </c>
       <c r="AP2" t="n">
-        <v>5.720712184906006</v>
+        <v>5.300602912902832</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.339118003845215</v>
+        <v>1.944416522979736</v>
       </c>
       <c r="AR2" t="n">
-        <v>10.96265697479248</v>
+        <v>9.909096717834473</v>
       </c>
       <c r="AS2" t="n">
-        <v>-4.934568881988525</v>
+        <v>-4.174826145172119</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.94618809223175</v>
+        <v>2.448839664459229</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.3844992816448212</v>
+        <v>-0.167968288064003</v>
       </c>
       <c r="AV2" t="n">
-        <v>2.925076246261597</v>
+        <v>3.593636035919189</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.1158736944198608</v>
+        <v>-0.4094493687152863</v>
       </c>
       <c r="AX2" t="n">
-        <v>-1.25528085231781</v>
+        <v>-2.225856065750122</v>
       </c>
       <c r="AY2" t="n">
-        <v>-7.182152271270752</v>
+        <v>-6.646545886993408</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-10.80638790130615</v>
+        <v>-11.32864284515381</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.508344829082489</v>
+        <v>-0.6171512007713318</v>
       </c>
       <c r="BB2" t="n">
-        <v>-4.305280685424805</v>
+        <v>-3.92755651473999</v>
       </c>
       <c r="BC2" t="n">
-        <v>-2.02876615524292</v>
+        <v>-2.691563367843628</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.2086893171072006</v>
+        <v>-0.01848878711462021</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.7471803426742554</v>
+        <v>-1.240590691566467</v>
       </c>
       <c r="BF2" t="n">
-        <v>-2.123831987380981</v>
+        <v>-1.660746097564697</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.1921682506799698</v>
+        <v>-0.3712377548217773</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.2625063955783844</v>
+        <v>0.8629601001739502</v>
       </c>
       <c r="BI2" t="n">
-        <v>-3.013890743255615</v>
+        <v>-3.365830659866333</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-6.771805763244629</v>
+        <v>-7.355085372924805</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.7875661253929138</v>
+        <v>-1.168695211410522</v>
       </c>
       <c r="BL2" t="n">
-        <v>6.180584907531738</v>
+        <v>6.502427101135254</v>
       </c>
       <c r="BM2" t="n">
-        <v>-5.256981372833252</v>
+        <v>-4.792080402374268</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.01485986262559891</v>
+        <v>0.22777259349823</v>
       </c>
       <c r="BO2" t="n">
-        <v>-11.79169082641602</v>
+        <v>-12.60895538330078</v>
       </c>
       <c r="BP2" t="n">
-        <v>-5.388276100158691</v>
+        <v>-5.951869487762451</v>
       </c>
       <c r="BQ2" t="n">
-        <v>6.548510551452637</v>
+        <v>6.435988903045654</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.760083794593811</v>
+        <v>0.007802614942193031</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.3457957208156586</v>
+        <v>0.8648371696472168</v>
       </c>
       <c r="BT2" t="n">
-        <v>-2.472372531890869</v>
+        <v>-2.686796188354492</v>
       </c>
       <c r="BU2" t="n">
-        <v>3.006679773330688</v>
+        <v>3.082790851593018</v>
       </c>
       <c r="BV2" t="n">
-        <v>3.390838623046875</v>
+        <v>3.119741916656494</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.02685919217765331</v>
+        <v>0.6652993559837341</v>
       </c>
       <c r="BX2" t="n">
-        <v>-1.701389074325562</v>
+        <v>-1.274843811988831</v>
       </c>
       <c r="BY2" t="n">
-        <v>-1.334990262985229</v>
+        <v>-0.9035687446594238</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-6.591849327087402</v>
+        <v>-6.132683277130127</v>
       </c>
       <c r="CA2" t="n">
-        <v>4.518474102020264</v>
+        <v>4.411716938018799</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.511379599571228</v>
+        <v>2.144100666046143</v>
       </c>
       <c r="CC2" t="n">
-        <v>3.042032718658447</v>
+        <v>3.144329071044922</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.5542487502098083</v>
+        <v>0.2060877233743668</v>
       </c>
       <c r="CE2" t="n">
-        <v>5.715460777282715</v>
+        <v>6.387373447418213</v>
       </c>
       <c r="CF2" t="n">
-        <v>-1.15427577495575</v>
+        <v>-1.303695440292358</v>
       </c>
       <c r="CG2" t="n">
-        <v>-8.221495628356934</v>
+        <v>-8.917975425720215</v>
       </c>
       <c r="CH2" t="n">
-        <v>-14.60676670074463</v>
+        <v>-14.16474914550781</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.195296168327332</v>
+        <v>0.9352596998214722</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-3.669688940048218</v>
+        <v>-3.228122234344482</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.1074655652046204</v>
+        <v>0.2895837426185608</v>
       </c>
       <c r="CL2" t="n">
-        <v>-1.153888344764709</v>
+        <v>-0.7424768805503845</v>
       </c>
       <c r="CM2" t="n">
-        <v>4.714502811431885</v>
+        <v>5.134058475494385</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.599886417388916</v>
+        <v>1.068209648132324</v>
       </c>
       <c r="CO2" t="n">
-        <v>-1.382898688316345</v>
+        <v>-1.679087162017822</v>
       </c>
       <c r="CP2" t="n">
-        <v>8.001001358032227</v>
+        <v>8.196696281433105</v>
       </c>
       <c r="CQ2" t="n">
-        <v>9.232424736022949</v>
+        <v>8.982552528381348</v>
       </c>
       <c r="CR2" t="n">
-        <v>-1.232187628746033</v>
+        <v>-0.8021305799484253</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.2317217588424683</v>
+        <v>-0.09691818803548813</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.468463808298111</v>
+        <v>-0.3167372643947601</v>
       </c>
       <c r="CU2" t="n">
-        <v>2.514678716659546</v>
+        <v>2.96128511428833</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.9517686367034912</v>
+        <v>0.6085631847381592</v>
       </c>
       <c r="CW2" t="n">
-        <v>-3.271387100219727</v>
+        <v>-2.884910345077515</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.117360845208168</v>
+        <v>0.1316860467195511</v>
       </c>
       <c r="CY2" t="n">
-        <v>5.602317810058594</v>
+        <v>5.230624198913574</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.4332515299320221</v>
+        <v>-0.7242826223373413</v>
       </c>
       <c r="DA2" t="n">
-        <v>-3.768773794174194</v>
+        <v>-4.362048149108887</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.321538209915161</v>
+        <v>0.7778027653694153</v>
       </c>
       <c r="DC2" t="n">
-        <v>-1.454966187477112</v>
+        <v>-0.9255215525627136</v>
       </c>
       <c r="DD2" t="n">
-        <v>-7.036753177642822</v>
+        <v>-6.67524242401123</v>
       </c>
       <c r="DE2" t="n">
-        <v>-2.076737880706787</v>
+        <v>-2.375171899795532</v>
       </c>
       <c r="DF2" t="n">
-        <v>6.059208393096924</v>
+        <v>6.236297130584717</v>
       </c>
       <c r="DG2" t="n">
-        <v>1.053908705711365</v>
+        <v>0.606080174446106</v>
       </c>
       <c r="DH2" t="n">
-        <v>6.790477752685547</v>
+        <v>7.305139064788818</v>
       </c>
       <c r="DI2" t="n">
-        <v>-1.29853081703186</v>
+        <v>-1.102517366409302</v>
       </c>
       <c r="DJ2" t="n">
-        <v>3.219543933868408</v>
+        <v>3.673442840576172</v>
       </c>
       <c r="DK2" t="n">
-        <v>-9.073955535888672</v>
+        <v>-9.672628402709961</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.7754253745079041</v>
+        <v>-1.136465311050415</v>
       </c>
       <c r="DM2" t="n">
-        <v>-2.437314748764038</v>
+        <v>-2.677326917648315</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.2223182916641235</v>
+        <v>-0.3659081757068634</v>
       </c>
       <c r="DO2" t="n">
-        <v>-23.1125316619873</v>
+        <v>-23.7558479309082</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.090079069137573</v>
+        <v>2.41939115524292</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.2590581178665161</v>
+        <v>-0.5771927833557129</v>
       </c>
       <c r="DR2" t="n">
-        <v>-1.24589467048645</v>
+        <v>-1.536142110824585</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.9203047156333923</v>
+        <v>1.436444640159607</v>
       </c>
       <c r="DT2" t="n">
-        <v>-7.536369800567627</v>
+        <v>-6.941693305969238</v>
       </c>
       <c r="DU2" t="n">
-        <v>-3.925240039825439</v>
+        <v>-3.57518196105957</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.2196303158998489</v>
+        <v>-0.8760190606117249</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.7210284471511841</v>
+        <v>1.064782977104187</v>
       </c>
       <c r="DX2" t="n">
-        <v>-2.267386913299561</v>
+        <v>-2.448139190673828</v>
       </c>
       <c r="DY2" t="n">
-        <v>7.380796432495117</v>
+        <v>7.636588096618652</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.5728312730789185</v>
+        <v>1.105134010314941</v>
       </c>
       <c r="EA2" t="n">
-        <v>3.075492382049561</v>
+        <v>3.598665714263916</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.2329847514629364</v>
+        <v>0.01964524388313293</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.5569747686386108</v>
+        <v>-0.9448921084403992</v>
       </c>
       <c r="ED2" t="n">
-        <v>8.462648391723633</v>
+        <v>8.114249229431152</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.3450945317745209</v>
+        <v>0.1135483309626579</v>
       </c>
       <c r="EF2" t="n">
-        <v>14.21619319915771</v>
+        <v>13.66367721557617</v>
       </c>
       <c r="EG2" t="n">
-        <v>2.8709397315979</v>
+        <v>3.775979280471802</v>
       </c>
       <c r="EH2" t="n">
-        <v>-6.229519367218018</v>
+        <v>-5.69642162322998</v>
       </c>
       <c r="EI2" t="n">
-        <v>-1.132081866264343</v>
+        <v>-0.7057806253433228</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-11.8286714553833</v>
+        <v>-12.78426837921143</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.234879493713379</v>
+        <v>1.443613171577454</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.6310040950775146</v>
+        <v>-0.929787814617157</v>
       </c>
       <c r="EM2" t="n">
-        <v>-5.711872100830078</v>
+        <v>-6.368311882019043</v>
       </c>
       <c r="EN2" t="n">
-        <v>2.242117881774902</v>
+        <v>3.036756277084351</v>
       </c>
       <c r="EO2" t="n">
-        <v>4.668235301971436</v>
+        <v>4.100184440612793</v>
       </c>
       <c r="EP2" t="n">
-        <v>-6.181717395782471</v>
+        <v>-6.37782096862793</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.5078021883964539</v>
+        <v>0.2510132789611816</v>
       </c>
       <c r="ER2" t="n">
-        <v>-1.233502864837646</v>
+        <v>-1.784987211227417</v>
       </c>
       <c r="ES2" t="n">
-        <v>2.335587024688721</v>
+        <v>2.717419385910034</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.9277203679084778</v>
+        <v>0.1925960928201675</v>
       </c>
       <c r="EU2" t="n">
-        <v>-6.655618667602539</v>
+        <v>-6.314957141876221</v>
       </c>
       <c r="EV2" t="n">
-        <v>-8.840226173400879</v>
+        <v>-9.667906761169434</v>
       </c>
       <c r="EW2" t="n">
-        <v>-4.34337854385376</v>
+        <v>-3.940834999084473</v>
       </c>
       <c r="EX2" t="n">
-        <v>4.317790508270264</v>
+        <v>3.914257526397705</v>
       </c>
       <c r="EY2" t="n">
-        <v>2.354580402374268</v>
+        <v>2.506369352340698</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-3.618161678314209</v>
+        <v>-3.175910949707031</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.3167141377925873</v>
+        <v>-0.8547963500022888</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.531747341156006</v>
+        <v>1.222719073295593</v>
       </c>
       <c r="FC2" t="n">
-        <v>-1.44207227230072</v>
+        <v>-0.9131640791893005</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.825108766555786</v>
+        <v>1.428087592124939</v>
       </c>
       <c r="FE2" t="n">
-        <v>-10.12109279632568</v>
+        <v>-9.717975616455078</v>
       </c>
       <c r="FF2" t="n">
-        <v>-4.054349422454834</v>
+        <v>-4.627944946289062</v>
       </c>
       <c r="FG2" t="n">
-        <v>-20.02619552612305</v>
+        <v>-19.9210147857666</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.6476128101348877</v>
+        <v>-1.279462099075317</v>
       </c>
       <c r="FI2" t="n">
-        <v>1.737323045730591</v>
+        <v>2.077215909957886</v>
       </c>
       <c r="FJ2" t="n">
-        <v>12.11014938354492</v>
+        <v>12.09615135192871</v>
       </c>
       <c r="FK2" t="n">
-        <v>8.664182662963867</v>
+        <v>8.517255783081055</v>
       </c>
       <c r="FL2" t="n">
-        <v>-1.006361365318298</v>
+        <v>-1.555247783660889</v>
       </c>
       <c r="FM2" t="n">
-        <v>-9.182835578918457</v>
+        <v>-9.712403297424316</v>
       </c>
       <c r="FN2" t="n">
-        <v>4.214977264404297</v>
+        <v>4.623593330383301</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.04013714194297791</v>
+        <v>-0.3916094899177551</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.3248497247695923</v>
+        <v>0.562461256980896</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.380161285400391</v>
+        <v>1.137933254241943</v>
       </c>
       <c r="FR2" t="n">
-        <v>-1.430869698524475</v>
+        <v>-1.755313158035278</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.805020272731781</v>
+        <v>-0.4984138607978821</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.56213104724884</v>
+        <v>1.327162861824036</v>
       </c>
       <c r="FU2" t="n">
-        <v>1.959471702575684</v>
+        <v>1.605149388313293</v>
       </c>
       <c r="FV2" t="n">
-        <v>1.278231382369995</v>
+        <v>1.718553423881531</v>
       </c>
       <c r="FW2" t="n">
-        <v>-1.853982210159302</v>
+        <v>-1.923848390579224</v>
       </c>
       <c r="FX2" t="n">
-        <v>-1.700312376022339</v>
+        <v>-1.910822153091431</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.002375602722168</v>
+        <v>0.6097262501716614</v>
       </c>
       <c r="FZ2" t="n">
-        <v>2.275579690933228</v>
+        <v>1.704586148262024</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.5246689915657043</v>
+        <v>-0.9853123426437378</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.9244737029075623</v>
+        <v>-0.4190024733543396</v>
       </c>
       <c r="GC2" t="n">
-        <v>-2.710269451141357</v>
+        <v>-2.733087539672852</v>
       </c>
       <c r="GD2" t="n">
-        <v>-7.617791652679443</v>
+        <v>-7.690333843231201</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.2760694026947021</v>
+        <v>-0.01955652423202991</v>
       </c>
       <c r="GF2" t="n">
-        <v>-1.18275260925293</v>
+        <v>-0.7040137648582458</v>
       </c>
       <c r="GG2" t="n">
-        <v>8.226881980895996</v>
+        <v>8.005924224853516</v>
       </c>
       <c r="GH2" t="n">
-        <v>-1.369406461715698</v>
+        <v>-0.7173647880554199</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.00410539610311389</v>
+        <v>-0.293230414390564</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.1750498265028</v>
+        <v>0.7303445935249329</v>
       </c>
       <c r="GK2" t="n">
-        <v>8.382241249084473</v>
+        <v>8.827816009521484</v>
       </c>
       <c r="GL2" t="n">
-        <v>-10.99074172973633</v>
+        <v>-10.85494613647461</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.620879590511322</v>
+        <v>-1.359497904777527</v>
       </c>
       <c r="GN2" t="n">
-        <v>-2.778995752334595</v>
+        <v>-2.032727718353271</v>
       </c>
       <c r="GO2" t="n">
-        <v>9.711511611938477</v>
+        <v>9.099006652832031</v>
       </c>
       <c r="GP2" t="n">
-        <v>-1.369083523750305</v>
+        <v>-1.165967702865601</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.04899375885725021</v>
+        <v>0.4282315671443939</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.08372879028320312</v>
+        <v>0.7069562077522278</v>
       </c>
       <c r="GS2" t="n">
-        <v>-4.161640167236328</v>
+        <v>-3.679340124130249</v>
       </c>
       <c r="GT2" t="n">
-        <v>-1.366606712341309</v>
+        <v>-1.710589170455933</v>
       </c>
       <c r="GU2" t="n">
-        <v>-2.728931665420532</v>
+        <v>-3.13051962852478</v>
       </c>
       <c r="GV2" t="n">
-        <v>-0.6748220324516296</v>
+        <v>-1.396593809127808</v>
       </c>
       <c r="GW2" t="n">
-        <v>3.732749462127686</v>
+        <v>3.398972034454346</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.096503376960754</v>
+        <v>0.729003369808197</v>
       </c>
       <c r="GY2" t="n">
-        <v>-1.583143830299377</v>
+        <v>-1.817841172218323</v>
       </c>
     </row>
   </sheetData>
